--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D8B2D-4AD4-4E7F-A7D0-88D18D860401}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -250,13 +256,25 @@
   </si>
   <si>
     <t>Carl</t>
+  </si>
+  <si>
+    <t>Aloh</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Ivanna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +330,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -358,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,9 +416,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,6 +468,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -617,7 +679,7 @@
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -677,7 +739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -705,7 +767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -730,10 +792,10 @@
       </c>
       <c r="L4">
         <f ca="1">SUMIF($G$2:$H$241,$K$4,$H$2:$H$241)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -766,7 +828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -799,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -825,7 +887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -857,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -887,7 +949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -917,7 +979,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -948,7 +1010,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -975,7 +1037,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1002,7 +1064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1116,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1137,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +1161,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1182,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1141,7 +1203,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1224,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1248,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1269,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1228,7 +1290,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1248,8 +1310,24 @@
         <v>37</v>
       </c>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <f>M24-L24</f>
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1272,8 +1350,24 @@
         <v>35</v>
       </c>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25">
+        <v>70</v>
+      </c>
+      <c r="M25">
+        <v>80</v>
+      </c>
+      <c r="N25">
+        <f>M25-L25</f>
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1293,8 +1387,24 @@
         <v>35</v>
       </c>
       <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26">
+        <v>12</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <f>M26-L26</f>
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1318,7 +1428,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1339,7 +1449,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1360,7 +1470,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1384,7 +1494,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1401,11 +1511,11 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1419,14 +1529,14 @@
         <v>53</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -1447,7 +1557,7 @@
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -1468,7 +1578,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -1476,18 +1586,42 @@
         <v>35</v>
       </c>
       <c r="E35" s="1"/>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>35</v>
+      </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
       </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>35</v>
+      </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1630,7 @@
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>70</v>
       </c>
@@ -1505,7 +1639,7 @@
       </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>73</v>
       </c>
@@ -1514,7 +1648,7 @@
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>74</v>
       </c>
@@ -1523,7 +1657,7 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -1532,334 +1666,343 @@
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="10:10">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="10:10">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="10:10">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="10:10">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="10:10">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="10:10">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="10:10">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="10:10">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="10:10">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="10:10">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="10:10">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="10:10">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="10:10">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="10:10">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="10:10">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="10:10">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="10:10">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="10:10">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="10:10">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="10:10">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="10:10">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="10:10">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="10:10">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="10:10">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="10:10">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="10:10">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="10:10">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="10:10">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="10:10">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="10:10">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="10:10">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="10:10">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="10:10">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="10:10">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="10:10">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="10:10">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="10:10">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="10:10">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="10:10">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="10:10">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="10:10">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="4"/>
     </row>
   </sheetData>
@@ -1869,24 +2012,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D8B2D-4AD4-4E7F-A7D0-88D18D860401}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAA23D3-08DB-4401-9B29-CD2BEB45C105}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -268,6 +268,21 @@
   </si>
   <si>
     <t>Ivanna</t>
+  </si>
+  <si>
+    <t>Eboy</t>
+  </si>
+  <si>
+    <t>Jimboy</t>
+  </si>
+  <si>
+    <t>Brownies</t>
+  </si>
+  <si>
+    <t>Dalya</t>
+  </si>
+  <si>
+    <t>Cliffen</t>
   </si>
 </sst>
 </file>
@@ -311,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -324,6 +339,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,9 +693,10 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -739,7 +756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -763,11 +780,11 @@
         <v>51</v>
       </c>
       <c r="L3">
-        <f ca="1">SUMIF(G2:H241,$K$3,H2:H241)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f ca="1">SUMIF(G2:H249,$K$3,H2:H249)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -791,11 +808,11 @@
         <v>53</v>
       </c>
       <c r="L4">
-        <f ca="1">SUMIF($G$2:$H$241,$K$4,$H$2:$H$241)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <f ca="1">SUMIF($G$2:$H$249,$K$4,$H$2:$H$249)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -824,11 +841,11 @@
         <v>52</v>
       </c>
       <c r="L5">
-        <f ca="1">SUMIF($G$2:$H$241,$K$5,$H$2:$H$241)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <f ca="1">SUMIF($G$2:$H$249,$K$5,$H$2:$H$249)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -857,11 +874,11 @@
         <v>54</v>
       </c>
       <c r="L6">
-        <f ca="1">SUMIF($G$2:$H$241,$K$6,$H$2:$H$241)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <f ca="1">SUMIF($G$2:$H$249,$K$6,$H$2:$H$249)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -887,7 +904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -919,7 +936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -949,7 +966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -979,7 +996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -989,14 +1006,11 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1007,10 +1021,10 @@
       </c>
       <c r="L11">
         <f>SUM(D2:D215)</f>
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1023,21 +1037,18 @@
       <c r="D12">
         <v>180</v>
       </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1048,13 +1059,13 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -1063,8 +1074,11 @@
       <c r="K13" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1074,21 +1088,27 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,25 +1118,31 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" t="s">
         <v>76</v>
       </c>
       <c r="L15">
-        <f>SUM(J2:J702)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(J2:J705)</f>
+        <v>289</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1127,13 +1153,13 @@
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1147,17 +1173,14 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1172,10 +1195,10 @@
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
@@ -1192,11 +1215,14 @@
       <c r="C19" t="s">
         <v>37</v>
       </c>
+      <c r="F19" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
@@ -1214,7 +1240,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1234,14 +1260,11 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
@@ -1259,13 +1282,13 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1279,8 +1302,11 @@
       <c r="C23" t="s">
         <v>37</v>
       </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H23" s="2">
         <v>10</v>
@@ -1301,13 +1327,13 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H24" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" t="s">
@@ -1337,17 +1363,14 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="F25" t="s">
-        <v>64</v>
-      </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" t="s">
@@ -1378,13 +1401,13 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" t="s">
@@ -1417,8 +1440,11 @@
       <c r="D27">
         <v>350</v>
       </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -1436,12 +1462,12 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="4">
+        <v>52</v>
+      </c>
+      <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" t="s">
@@ -1454,19 +1480,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>53</v>
       </c>
       <c r="H29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -1478,15 +1501,12 @@
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="2">
+        <v>54</v>
+      </c>
+      <c r="H30" s="4">
         <v>1</v>
       </c>
       <c r="I30" t="s">
@@ -1502,16 +1522,19 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>350</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="2">
+        <v>84</v>
+      </c>
+      <c r="H31" s="4">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -1525,6 +1548,9 @@
       <c r="C32" t="s">
         <v>35</v>
       </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
       <c r="G32" t="s">
         <v>53</v>
       </c>
@@ -1536,7 +1562,7 @@
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -1544,20 +1570,23 @@
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N33" s="6">
+        <v>43183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -1565,20 +1594,24 @@
         <v>35</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" t="s">
-        <v>77</v>
-      </c>
       <c r="G34" t="s">
         <v>51</v>
       </c>
       <c r="H34" s="2">
-        <v>3</v>
-      </c>
-      <c r="I34" s="5">
-        <v>43196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="N34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -1586,30 +1619,24 @@
         <v>35</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" t="s">
-        <v>80</v>
-      </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="F36" t="s">
-        <v>81</v>
-      </c>
       <c r="G36" t="s">
         <v>53</v>
       </c>
@@ -1617,56 +1644,116 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
       </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>37</v>
+      </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
       </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="5">
+        <v>43196</v>
+      </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1676,72 +1763,168 @@
       <c r="C42" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>35</v>
+      </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>37</v>
+      </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
+      </c>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>35</v>
+      </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>35</v>
+      </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>35</v>
+      </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.25">
@@ -2004,6 +2187,15 @@
     </row>
     <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J152" s="4"/>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J154" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAA23D3-08DB-4401-9B29-CD2BEB45C105}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$66</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -283,13 +280,37 @@
   </si>
   <si>
     <t>Cliffen</t>
+  </si>
+  <si>
+    <t>Jeo</t>
+  </si>
+  <si>
+    <t>Pedio</t>
+  </si>
+  <si>
+    <t>Rjoy</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -340,6 +361,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,27 +456,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,24 +490,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,14 +665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -693,10 +681,11 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,12 +710,17 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -752,11 +746,14 @@
         <v>35</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -766,6 +763,9 @@
       <c r="D3">
         <v>350</v>
       </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
       <c r="G3" t="s">
         <v>53</v>
       </c>
@@ -777,14 +777,17 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="L3">
-        <f ca="1">SUMIF(G2:H249,$K$3,H2:H249)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f ca="1">SUMIF(G2:H258,$L$3,H2:H258)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -794,6 +797,9 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" t="s">
         <v>52</v>
       </c>
@@ -805,14 +811,17 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
         <v>53</v>
       </c>
-      <c r="L4">
-        <f ca="1">SUMIF($G$2:$H$249,$K$4,$H$2:$H$249)</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f ca="1">SUMIF($G$2:$H$258,$L$4,$H$2:$H$258)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -838,14 +847,17 @@
         <v>27</v>
       </c>
       <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="L5">
-        <f ca="1">SUMIF($G$2:$H$249,$K$5,$H$2:$H$249)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f ca="1">SUMIF($G$2:$H$258,$L$5,$H$2:$H$258)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -858,6 +870,9 @@
       <c r="D6">
         <v>200</v>
       </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
       <c r="G6" t="s">
         <v>53</v>
       </c>
@@ -871,14 +886,17 @@
         <v>27</v>
       </c>
       <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6">
-        <f ca="1">SUMIF($G$2:$H$249,$K$6,$H$2:$H$249)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f ca="1">SUMIF($G$2:$H$258,$L$6,$H$2:$H$258)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -891,6 +909,9 @@
       <c r="D7">
         <v>350</v>
       </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" t="s">
         <v>54</v>
       </c>
@@ -903,8 +924,18 @@
       <c r="J7" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7">
+        <f>SUMIF(G:G,L7,H:H)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -935,8 +966,11 @@
       <c r="J8" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -962,11 +996,14 @@
         <v>37</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -992,11 +1029,14 @@
         <v>37</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1006,6 +1046,9 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
@@ -1017,14 +1060,17 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
         <v>55</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f>SUM(D2:D215)</f>
         <v>1980</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1037,6 +1083,9 @@
       <c r="D12">
         <v>180</v>
       </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
       <c r="G12" t="s">
         <v>51</v>
       </c>
@@ -1044,11 +1093,14 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1059,10 +1111,10 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1071,14 +1123,17 @@
         <v>35</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1089,7 +1144,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
@@ -1098,17 +1153,20 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,30 +1177,33 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s">
         <v>76</v>
       </c>
-      <c r="L15">
-        <f>SUM(J2:J705)</f>
-        <v>289</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f>SUM(J2:J715)</f>
+        <v>435</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1152,18 +1213,24 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
       </c>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1173,18 +1240,24 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1194,18 +1267,24 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1215,21 +1294,24 @@
       <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>59</v>
+      <c r="F19" t="s">
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1239,18 +1321,24 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1260,18 +1348,24 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
+      <c r="F21" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1281,8 +1375,11 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
+      <c r="F22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1291,8 +1388,11 @@
         <v>37</v>
       </c>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1302,21 +1402,24 @@
       <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="F23" t="s">
-        <v>19</v>
+      <c r="F23" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1326,34 +1429,40 @@
       <c r="C24" t="s">
         <v>37</v>
       </c>
+      <c r="F24" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" t="s">
         <v>52</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>16</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>20</v>
       </c>
-      <c r="N24">
-        <f>M24-L24</f>
+      <c r="O24">
+        <f>N24-M24</f>
         <v>4</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1363,34 +1472,40 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
+      <c r="F25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
         <v>53</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>70</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>80</v>
       </c>
-      <c r="N25">
-        <f>M25-L25</f>
+      <c r="O25">
+        <f>N25-M25</f>
         <v>10</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1400,8 +1515,11 @@
       <c r="C26" t="s">
         <v>37</v>
       </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="2">
         <v>10</v>
@@ -1411,23 +1529,26 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s">
         <v>54</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>12</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>15</v>
       </c>
-      <c r="N26">
-        <f>M26-L26</f>
+      <c r="O26">
+        <f>N26-M26</f>
         <v>3</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1441,7 +1562,7 @@
         <v>350</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
         <v>51</v>
@@ -1453,8 +1574,11 @@
         <v>35</v>
       </c>
       <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1464,36 +1588,48 @@
       <c r="C28" t="s">
         <v>37</v>
       </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
       <c r="G28" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1503,18 +1639,24 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
       <c r="G30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
       </c>
       <c r="I30" t="s">
         <v>35</v>
       </c>
       <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1527,18 +1669,24 @@
       <c r="D31">
         <v>350</v>
       </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="4">
+        <v>51</v>
+      </c>
+      <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>35</v>
       </c>
       <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1549,20 +1697,23 @@
         <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -1570,23 +1721,26 @@
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="N33" s="6">
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+      <c r="O33" s="6">
         <v>43183</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -1594,24 +1748,30 @@
         <v>35</v>
       </c>
       <c r="E34" s="1"/>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
       <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" t="s">
+        <v>93</v>
+      </c>
+      <c r="O34" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="2">
-        <v>4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="N34" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34">
+      <c r="P34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -1619,24 +1779,33 @@
         <v>35</v>
       </c>
       <c r="E35" s="1"/>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
       <c r="G35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="2">
+        <v>84</v>
+      </c>
+      <c r="H35" s="4">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
       </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
       <c r="G36" t="s">
         <v>53</v>
       </c>
@@ -1647,8 +1816,11 @@
         <v>37</v>
       </c>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -1656,7 +1828,7 @@
         <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
@@ -1665,10 +1837,14 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="B38" t="s">
         <v>70</v>
       </c>
@@ -1676,20 +1852,23 @@
         <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="B39" t="s">
         <v>73</v>
       </c>
@@ -1697,20 +1876,23 @@
         <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
         <v>51</v>
       </c>
       <c r="H39" s="2">
-        <v>3</v>
-      </c>
-      <c r="I39" s="5">
-        <v>43196</v>
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>35</v>
       </c>
       <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="B40" t="s">
         <v>74</v>
       </c>
@@ -1718,10 +1900,10 @@
         <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -1729,8 +1911,12 @@
       <c r="I40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J40" s="4"/>
+      <c r="K40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -1738,7 +1924,7 @@
         <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
         <v>53</v>
@@ -1749,11 +1935,12 @@
       <c r="I41" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J41" s="4"/>
+      <c r="K41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1763,439 +1950,760 @@
       <c r="C42" t="s">
         <v>35</v>
       </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
       <c r="G43" t="s">
         <v>53</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J43" s="4">
+        <v>54</v>
+      </c>
+      <c r="K43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3</v>
+      </c>
+      <c r="I44" s="5">
+        <v>43196</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
+      <c r="K45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="F46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="4">
+        <v>65</v>
+      </c>
+      <c r="K46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="F48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11">
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="4">
+        <v>100</v>
+      </c>
+      <c r="K49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="4">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11">
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="4">
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
+      <c r="K51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11">
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="4">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11">
+      <c r="F53" t="s">
         <v>82</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11">
+      <c r="F54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11">
+      <c r="F55" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11">
+      <c r="F56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11">
+      <c r="F57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11">
+      <c r="F58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11">
+      <c r="F59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>37</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11">
+      <c r="F60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11">
+      <c r="F61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="2">
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11">
+      <c r="F62" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11">
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="2">
         <v>2</v>
       </c>
-      <c r="I46" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="2">
-        <v>2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
+      <c r="I63" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11">
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
         <v>84</v>
       </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>35</v>
+      </c>
       <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="6:11">
+      <c r="F65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>35</v>
+      </c>
       <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11">
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>35</v>
+      </c>
       <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="6:11">
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:11">
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:11">
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:11">
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:11">
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:11">
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:11">
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:11">
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:11">
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:11">
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:11">
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:11">
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:11">
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:11">
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10">
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10">
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10">
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10">
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10">
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10">
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:10">
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:10">
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:10">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:10">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:10">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:10">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:10">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:10">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:10">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:10">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:10">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:10">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:10">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:10">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:10">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:10">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:10">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:10">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:10">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:10">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:10">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:10">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:10">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:10">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:10">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:10">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:10">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:10">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:10">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:10">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:10">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:10">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:10">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:10">
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:10">
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:10">
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:10">
       <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="10:10">
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" spans="10:10">
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" spans="10:10">
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163" spans="10:10">
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="10:10">
+      <c r="J164" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,24 +2712,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA0C7C-E3AB-4373-A4D2-ADE881A175CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$69</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -246,9 +252,6 @@
     <t>F8</t>
   </si>
   <si>
-    <t>(borrow)</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -304,13 +307,19 @@
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>Zeljan</t>
+  </si>
+  <si>
+    <t>Rowen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -363,6 +372,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,9 +471,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +523,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,14 +716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -682,10 +733,11 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,16 +763,16 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -747,13 +799,13 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -777,17 +829,24 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
         <v>51</v>
       </c>
       <c r="M3">
-        <f ca="1">SUMIF(G2:H258,$L$3,H2:H258)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <f ca="1">SUMIF(G2:H259,$L$3,H2:H259)</f>
+        <v>38</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <f ca="1">M3*N3</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -811,17 +870,24 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
         <v>53</v>
       </c>
       <c r="M4">
-        <f ca="1">SUMIF($G$2:$H$258,$L$4,$H$2:$H$258)</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <f ca="1">SUMIF($G$2:$H$259,$L$4,$H$2:$H$259)</f>
+        <v>125</v>
+      </c>
+      <c r="N4">
+        <v>27</v>
+      </c>
+      <c r="O4">
+        <f ca="1">M4*N4</f>
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -847,17 +913,24 @@
         <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
         <v>52</v>
       </c>
       <c r="M5">
-        <f ca="1">SUMIF($G$2:$H$258,$L$5,$H$2:$H$258)</f>
+        <f ca="1">SUMIF($G$2:$H$259,$L$5,$H$2:$H$259)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="N5">
+        <v>27</v>
+      </c>
+      <c r="O5">
+        <f ca="1">M5*N5</f>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -886,17 +959,24 @@
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
         <v>54</v>
       </c>
       <c r="M6">
-        <f ca="1">SUMIF($G$2:$H$258,$L$6,$H$2:$H$258)</f>
+        <f ca="1">SUMIF($G$2:$H$259,$L$6,$H$2:$H$259)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <f ca="1">M6*N6</f>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -925,17 +1005,24 @@
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7">
         <f>SUMIF(G:G,L7,H:H)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>65</v>
+      </c>
+      <c r="O7">
+        <f>M7*N7</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -945,12 +1032,6 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8">
-        <v>-500</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
       <c r="F8" t="s">
         <v>47</v>
       </c>
@@ -967,10 +1048,14 @@
         <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>89</v>
+      </c>
+      <c r="O8" s="1">
+        <f ca="1">SUM(O3:O7)</f>
+        <v>9663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -997,13 +1082,13 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1030,13 +1115,13 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1060,17 +1145,17 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
         <v>55</v>
       </c>
       <c r="M11">
         <f>SUM(D2:D215)</f>
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1097,10 +1182,10 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1114,7 +1199,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1124,16 +1209,13 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1153,20 +1235,19 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,20 +1271,17 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <f>SUM(J2:J715)</f>
-        <v>435</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <f>SUM(J2:J716)</f>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1227,10 +1305,10 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1254,10 +1332,10 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1281,10 +1359,10 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1308,10 +1386,11 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>92</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1325,7 +1404,7 @@
         <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1335,10 +1414,10 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1362,10 +1441,10 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1389,10 +1468,10 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1416,10 +1495,10 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1443,26 +1522,10 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" t="s">
-        <v>90</v>
-      </c>
-      <c r="L24" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>20</v>
-      </c>
-      <c r="O24">
-        <f>N24-M24</f>
-        <v>4</v>
-      </c>
-      <c r="P24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1539,7 @@
         <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1486,26 +1549,10 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25">
-        <v>70</v>
-      </c>
-      <c r="N25">
-        <v>80</v>
-      </c>
-      <c r="O25">
-        <f>N25-M25</f>
-        <v>10</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1529,26 +1576,10 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" t="s">
-        <v>54</v>
-      </c>
-      <c r="M26">
-        <v>12</v>
-      </c>
-      <c r="N26">
-        <v>15</v>
-      </c>
-      <c r="O26">
-        <f>N26-M26</f>
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1568,17 +1599,17 @@
         <v>51</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1602,10 +1633,10 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1626,10 +1657,10 @@
       </c>
       <c r="J29" s="4"/>
       <c r="K29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1643,20 +1674,20 @@
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="2">
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1679,14 +1710,14 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1710,10 +1741,10 @@
       </c>
       <c r="J32" s="4"/>
       <c r="K32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -1734,13 +1765,11 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" t="s">
-        <v>93</v>
-      </c>
-      <c r="O33" s="6">
-        <v>43183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>92</v>
+      </c>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -1762,16 +1791,11 @@
       </c>
       <c r="J34" s="4"/>
       <c r="K34" t="s">
-        <v>93</v>
-      </c>
-      <c r="O34" t="s">
-        <v>51</v>
-      </c>
-      <c r="P34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>92</v>
+      </c>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -1783,20 +1807,21 @@
         <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>92</v>
+      </c>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1817,10 +1842,10 @@
       </c>
       <c r="J36" s="4"/>
       <c r="K36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -1831,7 +1856,7 @@
         <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -1841,10 +1866,10 @@
       </c>
       <c r="J37" s="4"/>
       <c r="K37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>70</v>
       </c>
@@ -1865,10 +1890,10 @@
       </c>
       <c r="J38" s="4"/>
       <c r="K38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>73</v>
       </c>
@@ -1889,10 +1914,10 @@
       </c>
       <c r="J39" s="4"/>
       <c r="K39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>74</v>
       </c>
@@ -1913,10 +1938,10 @@
       </c>
       <c r="J40" s="4"/>
       <c r="K40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -1937,15 +1962,15 @@
       </c>
       <c r="J41" s="4"/>
       <c r="K41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
         <v>78</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -1954,19 +1979,19 @@
         <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>7</v>
       </c>
@@ -1983,12 +2008,12 @@
         <v>54</v>
       </c>
       <c r="K43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s">
         <v>51</v>
@@ -2001,12 +2026,12 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s">
         <v>53</v>
@@ -2021,32 +2046,32 @@
         <v>27</v>
       </c>
       <c r="K45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="8" t="s">
         <v>36</v>
       </c>
       <c r="J46" s="4">
         <v>65</v>
       </c>
       <c r="K46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
         <v>53</v>
@@ -2059,12 +2084,12 @@
       </c>
       <c r="J47" s="4"/>
       <c r="K47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2076,75 +2101,69 @@
         <v>37</v>
       </c>
       <c r="K48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="2">
+        <v>8</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J51" s="4">
         <v>100</v>
       </c>
-      <c r="K49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="6:11">
-      <c r="F50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="K51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
         <v>53</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="4">
-        <v>27</v>
-      </c>
-      <c r="K50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="6:11">
-      <c r="F51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s">
-        <v>52</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>35</v>
-      </c>
-      <c r="J51" s="4">
-        <v>27</v>
-      </c>
-      <c r="K51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="6:11">
-      <c r="F52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" t="s">
-        <v>54</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -2156,249 +2175,266 @@
         <v>27</v>
       </c>
       <c r="K52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="6:11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="J53" s="4">
+        <v>27</v>
+      </c>
       <c r="K53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="6:11">
+        <v>93</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53">
+        <f>SUMIF(H11:H69,O53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="J54" s="4">
+        <v>27</v>
+      </c>
       <c r="K54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="6:11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
         <v>51</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H57" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>35</v>
-      </c>
-      <c r="J57" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J57" s="4">
+        <v>100</v>
+      </c>
       <c r="K57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
         <v>35</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H59" s="2">
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J60" s="4">
+        <v>65</v>
+      </c>
       <c r="K60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
         <v>35</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>35</v>
-      </c>
-      <c r="J65" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J65" s="4">
+        <v>65</v>
+      </c>
       <c r="K65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
@@ -2408,302 +2444,352 @@
       </c>
       <c r="J66" s="4"/>
       <c r="K66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>35</v>
+      </c>
       <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="6:11">
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="6:11">
+      <c r="K67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="4">
+        <v>200</v>
+      </c>
+      <c r="K68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>35</v>
+      </c>
       <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="6:11">
+      <c r="K69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="6:11">
+    <row r="71" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="6:11">
+    <row r="72" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="6:11">
+    <row r="73" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="6:11">
+    <row r="74" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="6:11">
+    <row r="75" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="6:11">
+    <row r="76" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="6:11">
+    <row r="77" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="6:11">
+    <row r="78" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="6:11">
+    <row r="79" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="6:11">
+    <row r="80" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="10:10">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="10:10">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="10:10">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="10:10">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="10:10">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="10:10">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="10:10">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="10:10">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="10:10">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="10:10">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="10:10">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="10:10">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="10:10">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="10:10">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="10:10">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="10:10">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="10:10">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="10:10">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="10:10">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="10:10">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="10:10">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="10:10">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="10:10">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="10:10">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="10:10">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="10:10">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="10:10">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="10:10">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="10:10">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J165" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2712,24 +2798,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA0C7C-E3AB-4373-A4D2-ADE881A175CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$P$71</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -313,13 +307,28 @@
   </si>
   <si>
     <t>Rowen</t>
+  </si>
+  <si>
+    <t>My Order</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>My Price</t>
+  </si>
+  <si>
+    <t>Carol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,27 +480,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,24 +514,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,14 +689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -737,7 +710,7 @@
     <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -805,7 +778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -835,18 +808,18 @@
         <v>51</v>
       </c>
       <c r="M3">
-        <f ca="1">SUMIF(G2:H259,$L$3,H2:H259)</f>
-        <v>38</v>
+        <f ca="1">SUMIF(G2:H261,$L$3,H2:H261)</f>
+        <v>40</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
       <c r="O3">
         <f ca="1">M3*N3</f>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -876,18 +849,18 @@
         <v>53</v>
       </c>
       <c r="M4">
-        <f ca="1">SUMIF($G$2:$H$259,$L$4,$H$2:$H$259)</f>
-        <v>125</v>
+        <f ca="1">SUMIF($G$2:$H$261,$L$4,$H$2:$H$261)</f>
+        <v>129</v>
       </c>
       <c r="N4">
         <v>27</v>
       </c>
       <c r="O4">
         <f ca="1">M4*N4</f>
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -919,18 +892,18 @@
         <v>52</v>
       </c>
       <c r="M5">
-        <f ca="1">SUMIF($G$2:$H$259,$L$5,$H$2:$H$259)</f>
-        <v>27</v>
+        <f ca="1">SUMIF($G$2:$H$261,$L$5,$H$2:$H$261)</f>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>27</v>
       </c>
       <c r="O5">
         <f ca="1">M5*N5</f>
-        <v>729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -965,18 +938,18 @@
         <v>54</v>
       </c>
       <c r="M6">
-        <f ca="1">SUMIF($G$2:$H$259,$L$6,$H$2:$H$259)</f>
-        <v>17</v>
+        <f ca="1">SUMIF($G$2:$H$261,$L$6,$H$2:$H$261)</f>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>27</v>
       </c>
       <c r="O6">
         <f ca="1">M6*N6</f>
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1012,17 +985,17 @@
       </c>
       <c r="M7">
         <f>SUMIF(G:G,L7,H:H)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>65</v>
       </c>
       <c r="O7">
         <f>M7*N7</f>
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1052,10 +1025,10 @@
       </c>
       <c r="O8" s="1">
         <f ca="1">SUM(O3:O7)</f>
-        <v>9663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1128,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1185,7 +1158,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1215,7 +1188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1247,7 +1220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,11 +1250,11 @@
         <v>75</v>
       </c>
       <c r="M15">
-        <f>SUM(J2:J716)</f>
-        <v>965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f>SUM(J2:J718)</f>
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1281,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1334,8 +1307,20 @@
       <c r="K17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1361,8 +1346,21 @@
       <c r="K18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18">
+        <v>140</v>
+      </c>
+      <c r="N18">
+        <v>25</v>
+      </c>
+      <c r="O18">
+        <f>(M18*N18) -((M18*N18)*0.05)</f>
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1388,9 +1386,21 @@
       <c r="K19" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <v>25</v>
+      </c>
+      <c r="O19">
+        <f>(M19*N19) -((M19*N19)*0.05)</f>
+        <v>1187.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1410,14 +1420,27 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>25</v>
+      </c>
+      <c r="O20">
+        <f>(M20*N20) -((M20*N20)*0.05)</f>
+        <v>593.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1443,8 +1466,21 @@
       <c r="K21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <v>85</v>
+      </c>
+      <c r="O21">
+        <f>(M21*N21) -((M21*N21)*0.05)</f>
+        <v>4037.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1470,8 +1506,21 @@
       <c r="K22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>55</v>
+      </c>
+      <c r="O22">
+        <f>(M22*N22) -((M22*N22)*0.05)</f>
+        <v>1201.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1497,8 +1546,12 @@
       <c r="K23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O23" s="1">
+        <f>SUM(O18:O22)</f>
+        <v>10345.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1525,7 +1578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1551,8 +1604,11 @@
       <c r="K25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1578,8 +1634,11 @@
       <c r="K26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1608,8 +1667,21 @@
       <c r="K27" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <f>M27*N27</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1635,8 +1707,21 @@
       <c r="K28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28">
+        <v>140</v>
+      </c>
+      <c r="N28">
+        <v>27</v>
+      </c>
+      <c r="O28">
+        <f>M28*N28</f>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1659,8 +1744,21 @@
       <c r="K29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29">
+        <v>50</v>
+      </c>
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <f>M29*N29</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1686,8 +1784,21 @@
       <c r="K30" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>27</v>
+      </c>
+      <c r="O30">
+        <f>M30*N30</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1710,14 +1821,29 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J31" s="4">
+        <v>100</v>
+      </c>
       <c r="K31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <v>65</v>
+      </c>
+      <c r="O31">
+        <f>M31*N31</f>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1737,14 +1863,20 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J32" s="4">
+        <v>27</v>
+      </c>
       <c r="K32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="1">
+        <f>SUM(O27:O31)</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -1761,15 +1893,17 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J33" s="4">
+        <v>27</v>
+      </c>
       <c r="K33" t="s">
         <v>92</v>
       </c>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -1787,15 +1921,17 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J34" s="4">
+        <v>27</v>
+      </c>
       <c r="K34" t="s">
         <v>92</v>
       </c>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -1813,15 +1949,17 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J35" s="4">
+        <v>65</v>
+      </c>
       <c r="K35" t="s">
         <v>92</v>
       </c>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1845,7 +1983,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -1869,7 +2007,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="B38" t="s">
         <v>70</v>
       </c>
@@ -1893,7 +2031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="B39" t="s">
         <v>73</v>
       </c>
@@ -1910,14 +2048,14 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="B40" t="s">
         <v>74</v>
       </c>
@@ -1941,7 +2079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -1965,7 +2103,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -1991,70 +2129,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="F43" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H43" s="2">
         <v>2</v>
       </c>
       <c r="I43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
         <v>36</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="4">
         <v>54</v>
       </c>
-      <c r="K43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="2">
-        <v>3</v>
-      </c>
-      <c r="I44" s="5">
-        <v>43196</v>
-      </c>
-      <c r="J44" s="4"/>
       <c r="K44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="F45" t="s">
         <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" s="4">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" s="5">
+        <v>43196</v>
+      </c>
+      <c r="J45" s="4"/>
       <c r="K45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="F46" t="s">
         <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
@@ -2063,48 +2198,51 @@
         <v>36</v>
       </c>
       <c r="J46" s="4">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="4">
         <v>65</v>
       </c>
-      <c r="K46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
+      <c r="K47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="F48" t="s">
         <v>79</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>80</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
       </c>
       <c r="H48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
         <v>37</v>
       </c>
+      <c r="J48" s="4"/>
       <c r="K48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:11">
       <c r="F49" t="s">
         <v>80</v>
       </c>
@@ -2112,24 +2250,24 @@
         <v>53</v>
       </c>
       <c r="H49" s="2">
-        <v>8</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
       </c>
       <c r="K49" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:11">
       <c r="F50" t="s">
         <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H50" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>35</v>
@@ -2138,58 +2276,55 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:11">
       <c r="F51" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>36</v>
-      </c>
-      <c r="J51" s="4">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="K51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11">
       <c r="F52" t="s">
         <v>85</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J52" s="4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:11">
       <c r="F53" t="s">
         <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J53" s="4">
         <v>27</v>
@@ -2197,26 +2332,19 @@
       <c r="K53" t="s">
         <v>93</v>
       </c>
-      <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53">
-        <f>SUMIF(H11:H69,O53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="6:11">
       <c r="F54" t="s">
         <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J54" s="4">
         <v>27</v>
@@ -2225,163 +2353,169 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:11">
       <c r="F55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="4">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11">
+      <c r="F56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="2">
         <v>2</v>
-      </c>
-      <c r="I55" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
       </c>
       <c r="I56" t="s">
         <v>37</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11">
       <c r="F57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s">
         <v>51</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J57" s="4">
-        <v>100</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J57" s="4"/>
       <c r="K57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11">
       <c r="F58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11">
       <c r="F59" t="s">
         <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H59" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J59" s="4">
+        <v>100</v>
+      </c>
       <c r="K59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:11">
       <c r="F60" t="s">
         <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
         <v>36</v>
       </c>
       <c r="J60" s="4">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:11">
       <c r="F61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H61" s="2">
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J61" s="4">
+        <v>81</v>
+      </c>
       <c r="K61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="6:16" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11">
       <c r="F62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J62" s="4">
+        <v>65</v>
+      </c>
       <c r="K62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="6:16" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11">
       <c r="F63" t="s">
         <v>86</v>
       </c>
       <c r="G63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
         <v>37</v>
@@ -2391,53 +2525,51 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:11">
       <c r="F64" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:11">
       <c r="F65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="4">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J65" s="4"/>
       <c r="K65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11">
       <c r="F66" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="G66" t="s">
         <v>83</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
         <v>35</v>
@@ -2447,9 +2579,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:11">
       <c r="F67" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s">
         <v>83</v>
@@ -2458,42 +2590,42 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" s="4">
+        <v>65</v>
+      </c>
+      <c r="K67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="6:11">
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="4"/>
-      <c r="K67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" t="s">
-        <v>51</v>
-      </c>
-      <c r="H68" s="2">
-        <v>2</v>
-      </c>
-      <c r="I68" t="s">
-        <v>36</v>
-      </c>
-      <c r="J68" s="4">
-        <v>200</v>
-      </c>
+      <c r="J68" s="4"/>
       <c r="K68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11">
       <c r="F69" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
         <v>83</v>
       </c>
       <c r="H69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
         <v>35</v>
@@ -2503,293 +2635,376 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:11">
+      <c r="F70" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="4">
+        <v>200</v>
+      </c>
+      <c r="K70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="6:11">
+      <c r="F71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>35</v>
+      </c>
       <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="6:11">
+      <c r="F72" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>53</v>
+      </c>
+      <c r="H72" s="2">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>35</v>
+      </c>
       <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="6:11">
+      <c r="F73" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>54</v>
+      </c>
+      <c r="H73" s="2">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>35</v>
+      </c>
       <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="6:11">
+      <c r="F74" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="2">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>35</v>
+      </c>
       <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="6:11">
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:11">
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:11">
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:11">
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:11">
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:11">
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10">
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10">
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10">
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10">
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10">
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10">
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:10">
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:10">
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:10">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:10">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:10">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:10">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:10">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:10">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:10">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:10">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:10">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:10">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:10">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:10">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:10">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:10">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:10">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:10">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:10">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:10">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:10">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:10">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:10">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:10">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:10">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:10">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:10">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:10">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:10">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:10">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:10">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:10">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:10">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:10">
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:10">
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:10">
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:10">
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:10">
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:10">
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:10">
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:10">
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:10">
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:10">
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:10">
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:10">
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:10">
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:10">
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:10">
       <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="10:10">
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" spans="10:10">
+      <c r="J167" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2798,24 +3013,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$P$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$75</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Carol</t>
+  </si>
+  <si>
+    <t>Charlie</t>
   </si>
 </sst>
 </file>
@@ -690,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -779,6 +782,9 @@
       </c>
     </row>
     <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -808,7 +814,7 @@
         <v>51</v>
       </c>
       <c r="M3">
-        <f ca="1">SUMIF(G2:H261,$L$3,H2:H261)</f>
+        <f ca="1">SUMIF(G2:H262,$L$3,H2:H262)</f>
         <v>40</v>
       </c>
       <c r="N3">
@@ -827,7 +833,10 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -849,15 +858,15 @@
         <v>53</v>
       </c>
       <c r="M4">
-        <f ca="1">SUMIF($G$2:$H$261,$L$4,$H$2:$H$261)</f>
-        <v>129</v>
+        <f ca="1">SUMIF($G$2:$H$262,$L$4,$H$2:$H$262)</f>
+        <v>137</v>
       </c>
       <c r="N4">
         <v>27</v>
       </c>
       <c r="O4">
         <f ca="1">M4*N4</f>
-        <v>3483</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -892,7 +901,7 @@
         <v>52</v>
       </c>
       <c r="M5">
-        <f ca="1">SUMIF($G$2:$H$261,$L$5,$H$2:$H$261)</f>
+        <f ca="1">SUMIF($G$2:$H$262,$L$5,$H$2:$H$262)</f>
         <v>29</v>
       </c>
       <c r="N5">
@@ -938,7 +947,7 @@
         <v>54</v>
       </c>
       <c r="M6">
-        <f ca="1">SUMIF($G$2:$H$261,$L$6,$H$2:$H$261)</f>
+        <f ca="1">SUMIF($G$2:$H$262,$L$6,$H$2:$H$262)</f>
         <v>19</v>
       </c>
       <c r="N6">
@@ -1025,7 +1034,7 @@
       </c>
       <c r="O8" s="1">
         <f ca="1">SUM(O3:O7)</f>
-        <v>10209</v>
+        <v>10425</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1114,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" t="s">
@@ -1125,7 +1134,7 @@
       </c>
       <c r="M11">
         <f>SUM(D2:D215)</f>
-        <v>2480</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1178,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" t="s">
@@ -1250,8 +1259,8 @@
         <v>75</v>
       </c>
       <c r="M15">
-        <f>SUM(J2:J718)</f>
-        <v>1346</v>
+        <f>SUM(J2:J719)</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1722,6 +1731,9 @@
       </c>
     </row>
     <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1877,6 +1889,9 @@
       </c>
     </row>
     <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -1904,6 +1919,9 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
@@ -1932,6 +1950,9 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -1960,6 +1981,9 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1984,6 +2008,9 @@
       </c>
     </row>
     <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -2008,6 +2035,9 @@
       </c>
     </row>
     <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
@@ -2032,6 +2062,9 @@
       </c>
     </row>
     <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
       <c r="B39" t="s">
         <v>73</v>
       </c>
@@ -2056,6 +2089,9 @@
       </c>
     </row>
     <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
       <c r="B40" t="s">
         <v>74</v>
       </c>
@@ -2080,6 +2116,9 @@
       </c>
     </row>
     <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -2148,38 +2187,37 @@
     </row>
     <row r="44" spans="1:15">
       <c r="F44" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
         <v>53</v>
       </c>
       <c r="H44" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="4">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="F45" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H45" s="2">
-        <v>3</v>
-      </c>
-      <c r="I45" s="5">
-        <v>43196</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="4">
+        <v>54</v>
+      </c>
       <c r="K45" t="s">
         <v>89</v>
       </c>
@@ -2189,17 +2227,15 @@
         <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" s="4">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" s="5">
+        <v>43196</v>
+      </c>
+      <c r="J46" s="4"/>
       <c r="K46" t="s">
         <v>89</v>
       </c>
@@ -2209,7 +2245,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -2218,7 +2254,7 @@
         <v>36</v>
       </c>
       <c r="J47" s="4">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
         <v>89</v>
@@ -2226,35 +2262,38 @@
     </row>
     <row r="48" spans="1:15">
       <c r="F48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
       </c>
-      <c r="I48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" s="4"/>
+      <c r="I48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="4">
+        <v>65</v>
+      </c>
       <c r="K48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="6:11">
       <c r="F49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
       </c>
       <c r="H49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>37</v>
       </c>
+      <c r="J49" s="4"/>
       <c r="K49" t="s">
         <v>89</v>
       </c>
@@ -2267,10 +2306,10 @@
         <v>53</v>
       </c>
       <c r="H50" s="2">
-        <v>8</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>37</v>
       </c>
       <c r="K50" t="s">
         <v>89</v>
@@ -2281,13 +2320,13 @@
         <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H51" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s">
         <v>89</v>
@@ -2295,22 +2334,19 @@
     </row>
     <row r="52" spans="6:11">
       <c r="F52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>36</v>
-      </c>
-      <c r="J52" s="4">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="K52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="6:11">
@@ -2318,7 +2354,7 @@
         <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
@@ -2327,7 +2363,7 @@
         <v>36</v>
       </c>
       <c r="J53" s="4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s">
         <v>93</v>
@@ -2338,7 +2374,7 @@
         <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -2358,7 +2394,7 @@
         <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -2378,25 +2414,27 @@
         <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J56" s="4">
+        <v>27</v>
+      </c>
       <c r="K56" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="57" spans="6:11">
       <c r="F57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H57" s="2">
         <v>2</v>
@@ -2406,18 +2444,18 @@
       </c>
       <c r="J57" s="4"/>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="6:11">
       <c r="F58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
         <v>51</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
         <v>37</v>
@@ -2429,7 +2467,7 @@
     </row>
     <row r="59" spans="6:11">
       <c r="F59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
         <v>51</v>
@@ -2438,13 +2476,11 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
-      </c>
-      <c r="J59" s="4">
-        <v>100</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J59" s="4"/>
       <c r="K59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="6:11">
@@ -2452,16 +2488,16 @@
         <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
         <v>36</v>
       </c>
       <c r="J60" s="4">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s">
         <v>92</v>
@@ -2472,16 +2508,16 @@
         <v>84</v>
       </c>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H61" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
         <v>36</v>
       </c>
       <c r="J61" s="4">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s">
         <v>92</v>
@@ -2492,16 +2528,16 @@
         <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62" t="s">
         <v>36</v>
       </c>
       <c r="J62" s="4">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s">
         <v>92</v>
@@ -2509,20 +2545,22 @@
     </row>
     <row r="63" spans="6:11">
       <c r="F63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H63" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J63" s="4">
+        <v>65</v>
+      </c>
       <c r="K63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="6:11">
@@ -2530,10 +2568,10 @@
         <v>86</v>
       </c>
       <c r="G64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
         <v>37</v>
@@ -2548,7 +2586,7 @@
         <v>86</v>
       </c>
       <c r="G65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
@@ -2563,16 +2601,16 @@
     </row>
     <row r="66" spans="6:11">
       <c r="F66" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" t="s">
@@ -2581,27 +2619,25 @@
     </row>
     <row r="67" spans="6:11">
       <c r="F67" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="G67" t="s">
         <v>83</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J67" s="4">
-        <v>65</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J67" s="4"/>
       <c r="K67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="6:11">
       <c r="F68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
         <v>83</v>
@@ -2610,16 +2646,18 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
-      </c>
-      <c r="J68" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J68" s="4">
+        <v>65</v>
+      </c>
       <c r="K68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="6:11">
       <c r="F69" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
         <v>83</v>
@@ -2637,58 +2675,58 @@
     </row>
     <row r="70" spans="6:11">
       <c r="F70" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
-      </c>
-      <c r="J70" s="4">
-        <v>200</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J70" s="4"/>
       <c r="K70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="6:11">
       <c r="F71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H71" s="2">
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>35</v>
-      </c>
-      <c r="J71" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J71" s="4">
+        <v>200</v>
+      </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="6:11">
       <c r="F72" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H72" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="6:11">
@@ -2696,10 +2734,10 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H73" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
         <v>35</v>
@@ -2714,7 +2752,7 @@
         <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H74" s="2">
         <v>2</v>
@@ -2728,10 +2766,42 @@
       </c>
     </row>
     <row r="75" spans="6:11">
+      <c r="F75" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="2">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>35</v>
+      </c>
       <c r="J75" s="4"/>
+      <c r="K75" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="76" spans="6:11">
-      <c r="J76" s="4"/>
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>36</v>
+      </c>
+      <c r="J76" s="4">
+        <v>54</v>
+      </c>
+      <c r="K76" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="77" spans="6:11">
       <c r="J77" s="4"/>
@@ -3005,6 +3075,9 @@
     </row>
     <row r="167" spans="10:10">
       <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="10:10">
+      <c r="J168" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DA822A-7F97-4608-BF45-0C7E8F7B8E05}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$79</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -325,13 +331,16 @@
   </si>
   <si>
     <t>Charlie</t>
+  </si>
+  <si>
+    <t>Jhuvey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,9 +492,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,6 +544,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,14 +737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -713,7 +758,7 @@
     <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -781,7 +826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -814,7 +859,7 @@
         <v>51</v>
       </c>
       <c r="M3">
-        <f ca="1">SUMIF(G2:H262,$L$3,H2:H262)</f>
+        <f ca="1">SUMIF(G2:H264,$L$3,H2:H264)</f>
         <v>40</v>
       </c>
       <c r="N3">
@@ -825,7 +870,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -858,7 +903,7 @@
         <v>53</v>
       </c>
       <c r="M4">
-        <f ca="1">SUMIF($G$2:$H$262,$L$4,$H$2:$H$262)</f>
+        <f ca="1">SUMIF($G$2:$H$264,$L$4,$H$2:$H$264)</f>
         <v>137</v>
       </c>
       <c r="N4">
@@ -869,7 +914,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -901,7 +946,7 @@
         <v>52</v>
       </c>
       <c r="M5">
-        <f ca="1">SUMIF($G$2:$H$262,$L$5,$H$2:$H$262)</f>
+        <f ca="1">SUMIF($G$2:$H$264,$L$5,$H$2:$H$264)</f>
         <v>29</v>
       </c>
       <c r="N5">
@@ -912,7 +957,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -947,7 +992,7 @@
         <v>54</v>
       </c>
       <c r="M6">
-        <f ca="1">SUMIF($G$2:$H$262,$L$6,$H$2:$H$262)</f>
+        <f ca="1">SUMIF($G$2:$H$264,$L$6,$H$2:$H$264)</f>
         <v>19</v>
       </c>
       <c r="N6">
@@ -958,7 +1003,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -994,17 +1039,17 @@
       </c>
       <c r="M7">
         <f>SUMIF(G:G,L7,H:H)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>65</v>
       </c>
       <c r="O7">
         <f>M7*N7</f>
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1034,10 +1079,10 @@
       </c>
       <c r="O8" s="1">
         <f ca="1">SUM(O3:O7)</f>
-        <v>10425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1070,7 +1115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1182,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1167,7 +1212,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1197,7 +1242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1229,7 +1274,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,11 +1304,11 @@
         <v>75</v>
       </c>
       <c r="M15">
-        <f>SUM(J2:J719)</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <f>SUM(J2:J721)</f>
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1290,7 +1335,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1369,7 +1414,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1454,7 @@
         <v>1187.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1449,7 +1494,7 @@
         <v>593.75</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1469,9 +1514,11 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
       <c r="K21" t="s">
         <v>89</v>
       </c>
@@ -1489,7 +1536,7 @@
         <v>4037.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1509,9 +1556,11 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J22" s="4">
+        <v>27</v>
+      </c>
       <c r="K22" t="s">
         <v>89</v>
       </c>
@@ -1529,7 +1578,7 @@
         <v>1201.75</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1549,9 +1598,11 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J23" s="4">
+        <v>54</v>
+      </c>
       <c r="K23" t="s">
         <v>89</v>
       </c>
@@ -1560,7 +1611,7 @@
         <v>10345.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1580,14 +1631,16 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J24" s="4">
+        <v>27</v>
+      </c>
       <c r="K24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1607,9 +1660,11 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J25" s="4">
+        <v>65</v>
+      </c>
       <c r="K25" t="s">
         <v>89</v>
       </c>
@@ -1617,7 +1672,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1647,7 +1702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1690,7 +1745,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1730,7 +1785,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1770,7 +1825,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1810,7 +1865,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1855,7 +1910,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1888,7 +1943,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1918,7 +1973,7 @@
       </c>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1949,7 +2004,7 @@
       </c>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1980,7 +2035,7 @@
       </c>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2007,7 +2062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2034,7 +2089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2061,7 +2116,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2088,7 +2143,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2115,7 +2170,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2142,7 +2197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2168,7 +2223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>66</v>
       </c>
@@ -2185,7 +2240,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>66</v>
       </c>
@@ -2202,7 +2257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +2277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>76</v>
       </c>
@@ -2240,7 +2295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>76</v>
       </c>
@@ -2260,7 +2315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>76</v>
       </c>
@@ -2280,7 +2335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="6:11">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>79</v>
       </c>
@@ -2298,7 +2353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="6:11">
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>80</v>
       </c>
@@ -2309,13 +2364,16 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J50" s="4">
+        <v>54</v>
       </c>
       <c r="K50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="6:11">
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>80</v>
       </c>
@@ -2332,7 +2390,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="6:11">
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>80</v>
       </c>
@@ -2349,7 +2407,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="6:11">
+    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>85</v>
       </c>
@@ -2369,7 +2427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="6:11">
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>85</v>
       </c>
@@ -2389,7 +2447,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="6:11">
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>85</v>
       </c>
@@ -2409,7 +2467,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="6:11">
+    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>85</v>
       </c>
@@ -2429,7 +2487,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="6:11">
+    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>85</v>
       </c>
@@ -2447,33 +2505,33 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="6:11">
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="6:11">
+    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
         <v>51</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
         <v>37</v>
@@ -2483,9 +2541,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="6:11">
+    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s">
         <v>51</v>
@@ -2494,120 +2552,120 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
-      </c>
-      <c r="J60" s="4">
-        <v>100</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J60" s="4"/>
       <c r="K60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="4">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J61" s="4"/>
       <c r="K61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
         <v>36</v>
       </c>
       <c r="J62" s="4">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="6:11">
+    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
         <v>36</v>
       </c>
       <c r="J63" s="4">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K63" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="6:11">
+    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H64" s="2">
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J64" s="4">
+        <v>81</v>
+      </c>
       <c r="K64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
-      </c>
-      <c r="J65" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J65" s="4">
+        <v>65</v>
+      </c>
       <c r="K65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
         <v>37</v>
@@ -2617,65 +2675,63 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="6:11">
+    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="6:11">
+    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H68" s="2">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>36</v>
-      </c>
-      <c r="J68" s="4">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J68" s="4"/>
       <c r="K68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="G69" t="s">
         <v>83</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="6:11">
+    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s">
         <v>83</v>
@@ -2684,42 +2740,42 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>35</v>
-      </c>
-      <c r="J70" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J70" s="4">
+        <v>65</v>
+      </c>
       <c r="K70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>36</v>
-      </c>
-      <c r="J71" s="4">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J71" s="4"/>
       <c r="K71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
         <v>83</v>
       </c>
       <c r="H72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
         <v>37</v>
@@ -2729,51 +2785,53 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="6:11">
+    <row r="73" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H73" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>35</v>
-      </c>
-      <c r="J73" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J73" s="4">
+        <v>200</v>
+      </c>
       <c r="K73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="6:11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H74" s="2">
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="6:11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I75" t="s">
         <v>35</v>
@@ -2783,327 +2841,379 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="6:11">
+    <row r="76" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H76" s="2">
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
-      </c>
-      <c r="J76" s="4">
+        <v>35</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="2">
+        <v>2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>35</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="2">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="4">
         <v>54</v>
       </c>
-      <c r="K76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="6:11">
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="6:11">
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="6:11">
+      <c r="K78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>35</v>
+      </c>
       <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="6:11">
+      <c r="K79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="10:10">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="10:10">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="10:10">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="10:10">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="10:10">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="10:10">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="10:10">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="10:10">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="10:10">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="10:10">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="10:10">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="10:10">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="10:10">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="10:10">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="10:10">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="10:10">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="10:10">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="10:10">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="10:10">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="10:10">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="10:10">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="10:10">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="10:10">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="10:10">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="10:10">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="10:10">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="10:10">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="10:10">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="10:10">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="10:10">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="10:10">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="10:10">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="10:10">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="4"/>
     </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J169" s="4"/>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J170" s="4"/>
+    </row>
   </sheetData>
+  <autoFilter ref="F1:O79" xr:uid="{C6044DBB-CEEA-403C-9FDC-CED69B2990AB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DA822A-7F97-4608-BF45-0C7E8F7B8E05}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$81</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -334,13 +328,19 @@
   </si>
   <si>
     <t>Jhuvey</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Reynilas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,27 +492,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,24 +526,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -737,14 +701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -758,7 +722,7 @@
     <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,11 +753,9 @@
       <c r="K1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -807,26 +769,25 @@
         <v>350</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J2" s="4">
+        <v>27</v>
+      </c>
       <c r="K2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -840,37 +801,25 @@
         <v>350</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J3" s="4">
+        <v>27</v>
+      </c>
       <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3">
-        <f ca="1">SUMIF(G2:H264,$L$3,H2:H264)</f>
-        <v>40</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <f ca="1">M3*N3</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -884,37 +833,25 @@
         <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J4" s="4">
+        <v>27</v>
+      </c>
       <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4">
-        <f ca="1">SUMIF($G$2:$H$264,$L$4,$H$2:$H$264)</f>
-        <v>137</v>
-      </c>
-      <c r="N4">
-        <v>27</v>
-      </c>
-      <c r="O4">
-        <f ca="1">M4*N4</f>
-        <v>3699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -925,39 +862,23 @@
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="4">
-        <v>27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>43196</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" t="s">
         <v>89</v>
       </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5">
-        <f ca="1">SUMIF($G$2:$H$264,$L$5,$H$2:$H$264)</f>
-        <v>29</v>
-      </c>
-      <c r="N5">
-        <v>27</v>
-      </c>
-      <c r="O5">
-        <f ca="1">M5*N5</f>
-        <v>783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -965,13 +886,13 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -979,7 +900,7 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="8" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="4">
@@ -988,22 +909,8 @@
       <c r="K6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6">
-        <f ca="1">SUMIF($G$2:$H$264,$L$6,$H$2:$H$264)</f>
-        <v>19</v>
-      </c>
-      <c r="N6">
-        <v>27</v>
-      </c>
-      <c r="O6">
-        <f ca="1">M6*N6</f>
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1017,39 +924,25 @@
         <v>350</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="J7" s="4">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7">
-        <f>SUMIF(G:G,L7,H:H)</f>
-        <v>28</v>
-      </c>
-      <c r="N7">
-        <v>65</v>
-      </c>
-      <c r="O7">
-        <f>M7*N7</f>
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1060,29 +953,23 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="4">
-        <v>27</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="1">
-        <f ca="1">SUM(O3:O7)</f>
-        <v>10815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1090,32 +977,29 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1129,26 +1013,23 @@
         <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1159,30 +1040,25 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J11" s="4">
+        <v>54</v>
+      </c>
       <c r="K11" t="s">
         <v>89</v>
       </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11">
-        <f>SUM(D2:D215)</f>
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1190,29 +1066,31 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J12" s="4">
+        <v>100</v>
+      </c>
       <c r="K12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1220,29 +1098,31 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>350</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J13" s="4">
+        <v>27</v>
+      </c>
       <c r="K13" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1253,10 +1133,10 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1265,16 +1145,13 @@
         <v>36</v>
       </c>
       <c r="J14" s="4">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,30 +1162,25 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J15" s="4">
+        <v>27</v>
+      </c>
       <c r="K15" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15">
-        <f>SUM(J2:J721)</f>
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1319,23 +1191,25 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J16" s="4">
+        <v>130</v>
+      </c>
       <c r="K16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1346,35 +1220,23 @@
         <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1385,36 +1247,23 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18">
-        <v>140</v>
-      </c>
-      <c r="N18">
-        <v>25</v>
-      </c>
-      <c r="O18">
-        <f>(M18*N18) -((M18*N18)*0.05)</f>
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1425,36 +1274,25 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J19" s="4">
+        <v>100</v>
+      </c>
       <c r="K19" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19">
-        <v>50</v>
-      </c>
-      <c r="N19">
-        <v>25</v>
-      </c>
-      <c r="O19">
-        <f>(M19*N19) -((M19*N19)*0.05)</f>
-        <v>1187.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1465,36 +1303,25 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J20" s="4">
+        <v>54</v>
+      </c>
       <c r="K20" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20">
-        <v>25</v>
-      </c>
-      <c r="N20">
-        <v>25</v>
-      </c>
-      <c r="O20">
-        <f>(M20*N20) -((M20*N20)*0.05)</f>
-        <v>593.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1504,39 +1331,26 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>59</v>
+      <c r="F21" t="s">
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="4">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21">
-        <v>50</v>
-      </c>
-      <c r="N21">
-        <v>85</v>
-      </c>
-      <c r="O21">
-        <f>(M21*N21) -((M21*N21)*0.05)</f>
-        <v>4037.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1546,11 +1360,11 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>59</v>
+      <c r="F22" t="s">
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1559,26 +1373,13 @@
         <v>36</v>
       </c>
       <c r="J22" s="4">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M22">
-        <v>23</v>
-      </c>
-      <c r="N22">
-        <v>55</v>
-      </c>
-      <c r="O22">
-        <f>(M22*N22) -((M22*N22)*0.05)</f>
-        <v>1201.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1588,30 +1389,24 @@
       <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>59</v>
+      <c r="F23" t="s">
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="4">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J23" s="4"/>
       <c r="K23" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="1">
-        <f>SUM(O18:O22)</f>
-        <v>10345.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1621,26 +1416,24 @@
       <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>59</v>
+      <c r="F24" t="s">
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="4">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J24" s="4"/>
       <c r="K24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1650,11 +1443,11 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>59</v>
+      <c r="F25" t="s">
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1663,16 +1456,13 @@
         <v>36</v>
       </c>
       <c r="J25" s="4">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
         <v>89</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1683,26 +1473,25 @@
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H26" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J26" s="4">
+        <v>65</v>
+      </c>
       <c r="K26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1716,36 +1505,25 @@
         <v>350</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J27" s="4">
+        <v>54</v>
+      </c>
       <c r="K27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27">
-        <v>50</v>
-      </c>
-      <c r="N27">
-        <v>100</v>
-      </c>
-      <c r="O27">
-        <f>M27*N27</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1756,36 +1534,25 @@
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H28" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J28" s="4">
+        <v>216</v>
+      </c>
       <c r="K28" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28">
-        <v>140</v>
-      </c>
-      <c r="N28">
-        <v>27</v>
-      </c>
-      <c r="O28">
-        <f>M28*N28</f>
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1796,36 +1563,26 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H29" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J29" s="4">
+        <v>195</v>
+      </c>
       <c r="K29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29">
-        <v>50</v>
-      </c>
-      <c r="N29">
-        <v>27</v>
-      </c>
-      <c r="O29">
-        <f>M29*N29</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1836,36 +1593,26 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J30" s="4">
+        <v>100</v>
+      </c>
       <c r="K30" t="s">
         <v>92</v>
       </c>
-      <c r="L30" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>27</v>
-      </c>
-      <c r="O30">
-        <f>M30*N30</f>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1882,7 +1629,7 @@
         <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -1891,26 +1638,14 @@
         <v>36</v>
       </c>
       <c r="J31" s="4">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
         <v>92</v>
       </c>
-      <c r="L31" t="s">
-        <v>83</v>
-      </c>
-      <c r="M31">
-        <v>23</v>
-      </c>
-      <c r="N31">
-        <v>65</v>
-      </c>
-      <c r="O31">
-        <f>M31*N31</f>
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1924,7 +1659,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -1938,12 +1673,9 @@
       <c r="K32" t="s">
         <v>92</v>
       </c>
-      <c r="O32" s="1">
-        <f>SUM(O27:O31)</f>
-        <v>12300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1957,9 +1689,9 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="2">
+        <v>54</v>
+      </c>
+      <c r="H33" s="4">
         <v>1</v>
       </c>
       <c r="I33" t="s">
@@ -1971,9 +1703,8 @@
       <c r="K33" t="s">
         <v>92</v>
       </c>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1988,7 +1719,7 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -1997,14 +1728,13 @@
         <v>36</v>
       </c>
       <c r="J34" s="4">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="K34" t="s">
         <v>92</v>
       </c>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2016,26 +1746,23 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="4">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J35" s="4"/>
       <c r="K35" t="s">
-        <v>92</v>
-      </c>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2046,13 +1773,13 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
         <v>53</v>
       </c>
       <c r="H36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>37</v>
@@ -2062,7 +1789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2073,10 +1800,10 @@
         <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -2089,7 +1816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2100,23 +1827,23 @@
         <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2127,23 +1854,23 @@
         <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s">
         <v>51</v>
       </c>
       <c r="H39" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
         <v>37</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2154,23 +1881,23 @@
         <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +1911,7 @@
         <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -2197,7 +1924,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2211,36 +1938,38 @@
         <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H42" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I42" t="s">
         <v>37</v>
       </c>
+      <c r="J42" s="4"/>
       <c r="K42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="F43" t="s">
         <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J43" s="4"/>
       <c r="K43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="F44" t="s">
         <v>66</v>
       </c>
@@ -2248,102 +1977,109 @@
         <v>53</v>
       </c>
       <c r="H44" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J44" s="4"/>
       <c r="K44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="F45" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" s="4">
-        <v>54</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J45" s="4"/>
       <c r="K45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="F46" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
       </c>
       <c r="H46" s="2">
-        <v>3</v>
-      </c>
-      <c r="I46" s="5">
-        <v>43196</v>
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>37</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="F47" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
         <v>53</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="4">
-        <v>27</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="4"/>
       <c r="K47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="F48" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
         <v>36</v>
       </c>
       <c r="J48" s="4">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>104</v>
+      </c>
+      <c r="M48">
+        <f>SUM(J2:J236)</f>
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15">
       <c r="F49" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
       </c>
       <c r="H49" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I49" t="s">
         <v>37</v>
@@ -2352,144 +2088,204 @@
       <c r="K49" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>61</v>
+      </c>
+      <c r="M49">
+        <f>SUM(D2:D118)</f>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15">
       <c r="F50" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
         <v>53</v>
       </c>
       <c r="H50" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
-      </c>
-      <c r="J50" s="4">
-        <v>54</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J50" s="4"/>
       <c r="K50" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15">
       <c r="F51" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H51" s="2">
-        <v>8</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="4"/>
       <c r="K51" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="6:15">
       <c r="F52" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
         <v>83</v>
       </c>
       <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" t="s">
+        <v>89</v>
+      </c>
+      <c r="L52" t="s">
+        <v>51</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52">
+        <v>100</v>
+      </c>
+      <c r="O52">
+        <f>M52*N52</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="6:15">
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="2">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" t="s">
+        <v>92</v>
+      </c>
+      <c r="L53" t="s">
+        <v>53</v>
+      </c>
+      <c r="M53">
+        <v>140</v>
+      </c>
+      <c r="N53">
+        <v>27</v>
+      </c>
+      <c r="O53">
+        <f>M53*N53</f>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="54" spans="6:15">
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="2">
         <v>3</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="2">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J53" s="4">
-        <v>100</v>
-      </c>
-      <c r="K53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" t="s">
-        <v>53</v>
-      </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
       <c r="I54" t="s">
-        <v>36</v>
-      </c>
-      <c r="J54" s="4">
+        <v>37</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54">
         <v>27</v>
       </c>
-      <c r="K54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <f>M54*N54</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="55" spans="6:15">
       <c r="F55" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
         <v>52</v>
       </c>
       <c r="H55" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="4">
+        <v>37</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
         <v>27</v>
       </c>
-      <c r="K55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <f>M55*N55</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="56" spans="6:15">
       <c r="F56" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
         <v>54</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="4">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J56" s="4"/>
       <c r="K56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15">
       <c r="F57" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
         <v>83</v>
@@ -2502,15 +2298,29 @@
       </c>
       <c r="J57" s="4"/>
       <c r="K57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="L57" t="s">
+        <v>51</v>
+      </c>
+      <c r="M57">
+        <f ca="1">SUMIF(G58:H320,$L$3,H58:H320)</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>100</v>
+      </c>
+      <c r="O57">
+        <f ca="1">M57*N57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:15">
       <c r="F58" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
@@ -2520,69 +2330,86 @@
       </c>
       <c r="J58" s="4"/>
       <c r="K58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="L58" t="s">
+        <v>53</v>
+      </c>
+      <c r="M58">
+        <f ca="1">SUMIF($G$2:$H$266,$L$4,$H$2:$H$266)</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>27</v>
+      </c>
+      <c r="O58">
+        <f ca="1">M58*N58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15">
       <c r="F59" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H59" s="2">
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15">
       <c r="F60" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H60" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15">
       <c r="F61" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
         <v>83</v>
       </c>
       <c r="H61" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="6:15">
       <c r="F62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
@@ -2591,96 +2418,130 @@
         <v>36</v>
       </c>
       <c r="J62" s="4">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K62" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:15">
       <c r="F63" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
         <v>36</v>
       </c>
       <c r="J63" s="4">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:15">
       <c r="F64" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H64" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>36</v>
-      </c>
-      <c r="J64" s="4">
-        <v>81</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J64" s="4"/>
       <c r="K64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="6:15">
       <c r="F65" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I65" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="4">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J65" s="4"/>
       <c r="K65" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M65">
+        <v>140</v>
+      </c>
+      <c r="N65">
+        <v>25</v>
+      </c>
+      <c r="O65">
+        <f>(M65*N65) -((M65*N65)*0.05)</f>
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="66" spans="6:15">
       <c r="F66" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H66" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I66" t="s">
         <v>37</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M66">
+        <v>50</v>
+      </c>
+      <c r="N66">
+        <v>25</v>
+      </c>
+      <c r="O66">
+        <f>(M66*N66) -((M66*N66)*0.05)</f>
+        <v>1187.5</v>
+      </c>
+    </row>
+    <row r="67" spans="6:15">
       <c r="F67" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
@@ -2690,74 +2551,96 @@
       </c>
       <c r="J67" s="4"/>
       <c r="K67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M67">
+        <v>25</v>
+      </c>
+      <c r="N67">
+        <v>25</v>
+      </c>
+      <c r="O67">
+        <f>(M67*N67) -((M67*N67)*0.05)</f>
+        <v>593.75</v>
+      </c>
+    </row>
+    <row r="68" spans="6:15">
       <c r="F68" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G68" t="s">
         <v>54</v>
       </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="L68" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68">
+        <f>SUM(J57:J776)</f>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="69" spans="6:15">
       <c r="F69" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
         <v>83</v>
       </c>
       <c r="H69" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
         <v>37</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="6:15">
       <c r="F70" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H70" s="2">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
-      </c>
-      <c r="J70" s="4">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J70" s="4"/>
       <c r="K70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="6:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="O70" s="1">
+        <f>SUM(O65:O69)</f>
+        <v>5106.25</v>
+      </c>
+    </row>
+    <row r="71" spans="6:15">
       <c r="F71" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>83</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
         <v>37</v>
@@ -2766,48 +2649,66 @@
       <c r="K71" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="72" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="6:15">
       <c r="F72" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
-      </c>
-      <c r="J72" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J72" s="4">
+        <v>27</v>
+      </c>
       <c r="K72" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:15">
       <c r="F73" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73" s="4">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>89</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="2">
-        <v>2</v>
-      </c>
-      <c r="I73" t="s">
-        <v>36</v>
-      </c>
-      <c r="J73" s="4">
-        <v>200</v>
-      </c>
-      <c r="K73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>50</v>
+      </c>
+      <c r="N73">
+        <v>85</v>
+      </c>
+      <c r="O73">
+        <f>(M73*N73) -((M73*N73)*0.05)</f>
+        <v>4037.5</v>
+      </c>
+    </row>
+    <row r="74" spans="6:15">
       <c r="F74" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="G74" t="s">
         <v>83</v>
@@ -2822,46 +2723,67 @@
       <c r="K74" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="75" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F75" t="s">
+      <c r="L74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M74">
+        <v>23</v>
+      </c>
+      <c r="N74">
+        <v>55</v>
+      </c>
+      <c r="O74">
+        <f>(M74*N74) -((M74*N74)*0.05)</f>
+        <v>1201.75</v>
+      </c>
+    </row>
+    <row r="75" spans="6:15">
+      <c r="F75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" s="4">
         <v>100</v>
       </c>
-      <c r="G75" t="s">
+      <c r="K75" t="s">
+        <v>89</v>
+      </c>
+      <c r="O75" s="1">
+        <f>SUM(O70:O74)</f>
+        <v>10345.5</v>
+      </c>
+    </row>
+    <row r="76" spans="6:15">
+      <c r="F76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="2">
-        <v>4</v>
-      </c>
-      <c r="I75" t="s">
-        <v>35</v>
-      </c>
-      <c r="J75" s="4"/>
-      <c r="K75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F76" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" t="s">
-        <v>54</v>
-      </c>
       <c r="H76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>35</v>
-      </c>
-      <c r="J76" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J76" s="4">
+        <v>27</v>
+      </c>
       <c r="K76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F77" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="6:15">
+      <c r="F77" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G77" t="s">
         <v>52</v>
@@ -2870,36 +2792,41 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>35</v>
-      </c>
-      <c r="J77" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J77" s="4">
+        <v>54</v>
+      </c>
       <c r="K77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F78" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="6:15">
+      <c r="F78" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
         <v>36</v>
       </c>
       <c r="J78" s="4">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F79" t="s">
-        <v>102</v>
+    <row r="79" spans="6:15">
+      <c r="F79" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G79" t="s">
         <v>83</v>
@@ -2908,312 +2835,351 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>35</v>
-      </c>
-      <c r="J79" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J79" s="4">
+        <v>65</v>
+      </c>
       <c r="K79" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:15">
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="2">
+        <v>2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>37</v>
+      </c>
       <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="6:11">
+      <c r="F81" t="s">
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="2">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" s="4">
+        <v>200</v>
+      </c>
+      <c r="K81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="6:11">
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:11">
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:11">
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:11">
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:11">
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:11">
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:11">
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:11">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:11">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:11">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:11">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:11">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:11">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:11">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:11">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:10">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:10">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:10">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:10">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:10">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:10">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:10">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:10">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:10">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:10">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:10">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:10">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:10">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:10">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:10">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:10">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:10">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:10">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:10">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:10">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:10">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:10">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:10">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:10">
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:10">
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:10">
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:10">
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:10">
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:10">
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:10">
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:10">
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:10">
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:10">
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:10">
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:10">
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:10">
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:10">
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:10">
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:10">
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:10">
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:10">
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:10">
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:10">
       <c r="J170" s="4"/>
     </row>
+    <row r="171" spans="10:10">
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172" spans="10:10">
+      <c r="J172" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:O79" xr:uid="{C6044DBB-CEEA-403C-9FDC-CED69B2990AB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Reynilas</t>
+  </si>
+  <si>
+    <t>Padi</t>
   </si>
 </sst>
 </file>
@@ -704,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,7 +1040,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
       </c>
       <c r="F11" t="s">
         <v>101</v>
@@ -2093,7 +2099,7 @@
       </c>
       <c r="M49">
         <f>SUM(D2:D118)</f>
-        <v>3650</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="50" spans="6:15">

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0117CE5-C079-4782-B8B5-009BAA7255BC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$85</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -342,8 +348,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,9 +501,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,6 +553,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -704,14 +746,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -725,7 +768,7 @@
     <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +801,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -790,7 +833,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -822,7 +865,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -854,7 +897,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -862,7 +905,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>76</v>
@@ -881,7 +927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -913,7 +959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -945,7 +991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -972,7 +1018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1010,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="F10" t="s">
         <v>100</v>
@@ -1032,7 +1078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1049,22 +1095,20 @@
         <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="4">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J11" s="4"/>
       <c r="K11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1078,25 +1122,25 @@
         <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="4">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1113,7 +1157,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1122,13 +1166,13 @@
         <v>36</v>
       </c>
       <c r="J13" s="4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1142,7 +1186,7 @@
         <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1157,7 +1201,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1215,7 @@
         <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -1186,7 +1230,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1200,22 +1244,22 @@
         <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16" s="4">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1229,20 +1273,22 @@
         <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J17" s="4">
+        <v>130</v>
+      </c>
       <c r="K17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1302,7 @@
         <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1269,7 +1315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1280,25 +1326,23 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="4">
-        <v>100</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J19" s="4"/>
       <c r="K19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1312,22 +1356,22 @@
         <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="4">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1341,22 +1385,22 @@
         <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="4">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1370,22 +1414,22 @@
         <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="4">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1396,23 +1440,25 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
         <v>83</v>
       </c>
       <c r="H23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J23" s="4">
+        <v>65</v>
+      </c>
       <c r="K23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1426,20 +1472,20 @@
         <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1450,25 +1496,23 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="4">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J25" s="4"/>
       <c r="K25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1482,7 +1526,7 @@
         <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -1491,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="J26" s="4">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1511,25 +1555,25 @@
         <v>350</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
         <v>36</v>
       </c>
       <c r="J27" s="4">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1546,19 +1590,19 @@
         <v>53</v>
       </c>
       <c r="H28" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
       </c>
       <c r="J28" s="4">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="K28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1572,23 +1616,23 @@
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H29" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I29" t="s">
         <v>36</v>
       </c>
       <c r="J29" s="4">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s">
         <v>89</v>
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1599,26 +1643,26 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
         <v>36</v>
       </c>
       <c r="J30" s="4">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1635,7 +1679,7 @@
         <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -1644,14 +1688,14 @@
         <v>36</v>
       </c>
       <c r="J31" s="4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s">
         <v>92</v>
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1659,13 +1703,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -1681,7 +1725,7 @@
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1689,15 +1733,15 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="4">
+        <v>53</v>
+      </c>
+      <c r="H33" s="2">
         <v>1</v>
       </c>
       <c r="I33" t="s">
@@ -1710,7 +1754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1718,14 +1762,14 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" t="s">
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -1734,13 +1778,13 @@
         <v>36</v>
       </c>
       <c r="J34" s="4">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1748,27 +1792,29 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="2">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J35" s="4">
+        <v>65</v>
+      </c>
       <c r="K35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1776,16 +1822,16 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
         <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="s">
         <v>37</v>
@@ -1795,7 +1841,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1803,13 +1849,13 @@
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
         <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -1822,7 +1868,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1830,26 +1876,26 @@
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -1857,26 +1903,26 @@
         <v>73</v>
       </c>
       <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
         <v>35</v>
-      </c>
-      <c r="F39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>37</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -1884,26 +1930,26 @@
         <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
         <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H40" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -1911,26 +1957,26 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
         <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="2">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>37</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -1938,7 +1984,7 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
         <v>66</v>
@@ -1947,7 +1993,7 @@
         <v>51</v>
       </c>
       <c r="H42" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I42" t="s">
         <v>37</v>
@@ -1957,15 +2003,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I43" t="s">
         <v>37</v>
@@ -1975,15 +2021,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
         <v>37</v>
@@ -1993,15 +2039,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
         <v>37</v>
@@ -2011,15 +2057,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
         <v>37</v>
@@ -2029,15 +2075,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H47" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I47" t="s">
         <v>37</v>
@@ -2050,45 +2096,43 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
       </c>
       <c r="H48" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="4">
-        <v>54</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J48" s="4"/>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L48" t="s">
         <v>104</v>
       </c>
       <c r="M48">
-        <f>SUM(J2:J236)</f>
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="49" spans="6:15">
+        <f>SUM(J2:J240)</f>
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
       </c>
       <c r="H49" s="2">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" t="s">
@@ -2099,21 +2143,21 @@
       </c>
       <c r="M49">
         <f>SUM(D2:D118)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="50" spans="6:15">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H50" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" t="s">
@@ -2123,18 +2167,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="6:15">
+    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H51" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" t="s">
@@ -2144,20 +2188,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="6:15">
+    <row r="52" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J52" s="4">
+        <v>54</v>
+      </c>
       <c r="K52" t="s">
         <v>89</v>
       </c>
@@ -2175,22 +2221,22 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="6:15">
+    <row r="53" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s">
         <v>53</v>
       </c>
       <c r="H53" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I53" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s">
         <v>53</v>
@@ -2206,22 +2252,22 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="54" spans="6:15">
+    <row r="54" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H54" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I54" t="s">
         <v>37</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s">
         <v>52</v>
@@ -2237,22 +2283,22 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="55" spans="6:15">
+    <row r="55" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I55" t="s">
         <v>37</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s">
         <v>54</v>
@@ -2268,36 +2314,36 @@
         <v>675</v>
       </c>
     </row>
-    <row r="56" spans="6:15">
+    <row r="56" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H56" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
         <v>37</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="6:15">
+    <row r="57" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H57" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
         <v>37</v>
@@ -2310,7 +2356,7 @@
         <v>51</v>
       </c>
       <c r="M57">
-        <f ca="1">SUMIF(G58:H320,$L$3,H58:H320)</f>
+        <f ca="1">SUMIF(G62:H324,$L$3,H62:H324)</f>
         <v>0</v>
       </c>
       <c r="N57">
@@ -2321,28 +2367,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:15">
+    <row r="58" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
         <v>51</v>
       </c>
       <c r="H58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L58" t="s">
         <v>53</v>
       </c>
       <c r="M58">
-        <f ca="1">SUMIF($G$2:$H$266,$L$4,$H$2:$H$266)</f>
+        <f ca="1">SUMIF($G$2:$H$270,$L$4,$H$2:$H$270)</f>
         <v>0</v>
       </c>
       <c r="N58">
@@ -2353,119 +2399,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:15">
+    <row r="59" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H59" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="6:15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H60" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="6:15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
         <v>83</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="6:15">
+    <row r="62" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>36</v>
-      </c>
-      <c r="J62" s="4">
-        <v>65</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J62" s="4"/>
       <c r="K62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="6:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>36</v>
-      </c>
-      <c r="J63" s="4">
-        <v>100</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J63" s="4"/>
       <c r="K63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="6:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>96</v>
@@ -2480,22 +2522,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="6:15">
+    <row r="65" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H65" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>37</v>
-      </c>
-      <c r="J65" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J65" s="4">
+        <v>65</v>
+      </c>
       <c r="K65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>53</v>
@@ -2511,20 +2555,22 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="66" spans="6:15">
+    <row r="66" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H66" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J66" s="4">
+        <v>65</v>
+      </c>
       <c r="K66" t="s">
         <v>92</v>
       </c>
@@ -2542,20 +2588,22 @@
         <v>1187.5</v>
       </c>
     </row>
-    <row r="67" spans="6:15">
+    <row r="67" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J67" s="4">
+        <v>100</v>
+      </c>
       <c r="K67" t="s">
         <v>92</v>
       </c>
@@ -2573,40 +2621,40 @@
         <v>593.75</v>
       </c>
     </row>
-    <row r="68" spans="6:15">
+    <row r="68" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L68" t="s">
         <v>75</v>
       </c>
       <c r="M68">
-        <f>SUM(J57:J776)</f>
-        <v>692</v>
-      </c>
-    </row>
-    <row r="69" spans="6:15">
+        <f>SUM(J61:J780)</f>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="69" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H69" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I69" t="s">
         <v>37</v>
@@ -2616,87 +2664,83 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="6:15">
+    <row r="70" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" t="s">
         <v>37</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O70" s="1">
         <f>SUM(O65:O69)</f>
         <v>5106.25</v>
       </c>
     </row>
-    <row r="71" spans="6:15">
+    <row r="71" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
         <v>37</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="6:15">
+    <row r="72" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
-      </c>
-      <c r="J72" s="4">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J72" s="4"/>
       <c r="K72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="6:15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H73" s="2">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>36</v>
-      </c>
-      <c r="J73" s="4">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J73" s="4"/>
       <c r="K73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>51</v>
@@ -2712,15 +2756,15 @@
         <v>4037.5</v>
       </c>
     </row>
-    <row r="74" spans="6:15">
+    <row r="74" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
         <v>37</v>
@@ -2743,22 +2787,20 @@
         <v>1201.75</v>
       </c>
     </row>
-    <row r="75" spans="6:15">
-      <c r="F75" s="3" t="s">
-        <v>59</v>
+    <row r="75" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>95</v>
       </c>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>36</v>
-      </c>
-      <c r="J75" s="4">
-        <v>100</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J75" s="4"/>
       <c r="K75" t="s">
         <v>89</v>
       </c>
@@ -2767,12 +2809,12 @@
         <v>10345.5</v>
       </c>
     </row>
-    <row r="76" spans="6:15">
-      <c r="F76" s="3" t="s">
-        <v>59</v>
+    <row r="76" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H76" s="2">
         <v>1</v>
@@ -2787,21 +2829,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="6:15">
-      <c r="F77" s="3" t="s">
-        <v>59</v>
+    <row r="77" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>8</v>
       </c>
       <c r="G77" t="s">
         <v>52</v>
       </c>
       <c r="H77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
         <v>36</v>
       </c>
       <c r="J77" s="4">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K77" t="s">
         <v>89</v>
@@ -2810,32 +2852,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="6:15">
-      <c r="F78" s="3" t="s">
-        <v>59</v>
+    <row r="78" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>36</v>
-      </c>
-      <c r="J78" s="4">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J78" s="4"/>
       <c r="K78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="6:15">
+    <row r="79" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="F79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G79" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H79" s="2">
         <v>1</v>
@@ -2844,36 +2884,38 @@
         <v>36</v>
       </c>
       <c r="J79" s="4">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K79" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="6:15">
-      <c r="F80" t="s">
-        <v>79</v>
+    <row r="80" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G80" t="s">
         <v>53</v>
       </c>
       <c r="H80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>37</v>
-      </c>
-      <c r="J80" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J80" s="4">
+        <v>27</v>
+      </c>
       <c r="K80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="6:11">
-      <c r="F81" t="s">
-        <v>94</v>
+    <row r="81" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H81" s="2">
         <v>2</v>
@@ -2882,310 +2924,402 @@
         <v>36</v>
       </c>
       <c r="J81" s="4">
+        <v>54</v>
+      </c>
+      <c r="K81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" s="4">
+        <v>27</v>
+      </c>
+      <c r="K82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>36</v>
+      </c>
+      <c r="J83" s="4">
+        <v>65</v>
+      </c>
+      <c r="K83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="2">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>36</v>
+      </c>
+      <c r="J84" s="4">
+        <v>54</v>
+      </c>
+      <c r="K84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85" s="4">
         <v>200</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="6:11">
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="6:11">
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="6:11">
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="6:11">
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="6:11">
+    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="6:11">
+    <row r="87" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="6:11">
+    <row r="88" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="6:11">
+    <row r="89" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="6:11">
+    <row r="90" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="6:11">
+    <row r="91" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="6:11">
+    <row r="92" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="6:11">
+    <row r="93" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="6:11">
+    <row r="94" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="6:11">
+    <row r="95" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="6:11">
+    <row r="96" spans="6:11" x14ac:dyDescent="0.25">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="10:10">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="10:10">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="10:10">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="10:10">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="10:10">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="10:10">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="10:10">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="10:10">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="10:10">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="10:10">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="10:10">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="10:10">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="10:10">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="10:10">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="10:10">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="10:10">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="10:10">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="10:10">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="10:10">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="10:10">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="10:10">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="4"/>
     </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J176" s="4"/>
+    </row>
   </sheetData>
+  <autoFilter ref="F1:O85" xr:uid="{172D33F2-C899-4989-B89D-0CB7CD102A22}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="KP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0117CE5-C079-4782-B8B5-009BAA7255BC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$86</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -348,8 +342,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,27 +495,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,24 +529,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -746,15 +704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -768,7 +725,7 @@
     <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +758,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -833,7 +790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -865,7 +822,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -897,7 +854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -927,7 +884,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -959,7 +916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -991,7 +948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1005,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1035,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1098,17 +1055,19 @@
         <v>52</v>
       </c>
       <c r="H11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J11" s="4">
+        <v>54</v>
+      </c>
       <c r="K11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1128,19 +1087,19 @@
         <v>53</v>
       </c>
       <c r="H12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="4">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1172,7 +1131,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1201,7 +1160,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1189,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1218,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1247,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1308,14 +1267,16 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
       <c r="K18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1335,14 +1296,16 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J19" s="4">
+        <v>65</v>
+      </c>
       <c r="K19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1371,7 +1334,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +1363,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1429,7 +1392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1421,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1485,7 +1448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1475,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1529,19 +1492,19 @@
         <v>53</v>
       </c>
       <c r="H26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="s">
         <v>36</v>
       </c>
       <c r="J26" s="4">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1573,7 +1536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1602,7 +1565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1632,7 +1595,7 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1662,7 +1625,7 @@
       </c>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1695,7 +1658,7 @@
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1725,7 +1688,7 @@
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1754,7 +1717,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1784,7 +1747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1814,7 +1777,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1841,7 +1804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1868,7 +1831,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1895,7 +1858,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -1915,14 +1878,14 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -1949,7 +1912,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -1966,17 +1929,19 @@
         <v>83</v>
       </c>
       <c r="H41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J41" s="4">
+        <v>65</v>
+      </c>
       <c r="K41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -1987,10 +1952,10 @@
         <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
@@ -2000,10 +1965,10 @@
       </c>
       <c r="J42" s="4"/>
       <c r="K42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="F43" t="s">
         <v>66</v>
       </c>
@@ -2011,7 +1976,7 @@
         <v>51</v>
       </c>
       <c r="H43" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
         <v>37</v>
@@ -2021,15 +1986,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="F44" t="s">
         <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I44" t="s">
         <v>37</v>
@@ -2039,15 +2004,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="F45" t="s">
         <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
         <v>37</v>
@@ -2057,15 +2022,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="F46" t="s">
         <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="s">
         <v>37</v>
@@ -2075,15 +2040,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="F47" t="s">
         <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>37</v>
@@ -2096,15 +2061,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="F48" t="s">
         <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H48" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
         <v>37</v>
@@ -2117,27 +2082,27 @@
         <v>104</v>
       </c>
       <c r="M48">
-        <f>SUM(J2:J240)</f>
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
+        <f>SUM(J2:J243)</f>
+        <v>6878</v>
+      </c>
+      <c r="R48">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15">
       <c r="F49" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H49" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I49" t="s">
         <v>35</v>
       </c>
       <c r="J49" s="4"/>
-      <c r="K49" t="s">
-        <v>89</v>
-      </c>
       <c r="L49" t="s">
         <v>61</v>
       </c>
@@ -2146,41 +2111,43 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:15">
       <c r="F50" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="G50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H50" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:15">
       <c r="F51" t="s">
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>35</v>
-      </c>
-      <c r="J51" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J51" s="4">
+        <v>108</v>
+      </c>
       <c r="K51" t="s">
         <v>89</v>
       </c>
@@ -2188,21 +2155,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:15">
       <c r="F52" t="s">
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
         <v>36</v>
       </c>
       <c r="J52" s="4">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K52" t="s">
         <v>89</v>
@@ -2221,20 +2188,22 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:15">
       <c r="F53" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
         <v>53</v>
       </c>
       <c r="H53" s="2">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J53" s="4">
+        <v>54</v>
+      </c>
       <c r="K53" t="s">
         <v>89</v>
       </c>
@@ -2252,7 +2221,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="54" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:15">
       <c r="F54" t="s">
         <v>48</v>
       </c>
@@ -2260,12 +2229,14 @@
         <v>53</v>
       </c>
       <c r="H54" s="2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1378</v>
+      </c>
       <c r="K54" t="s">
         <v>89</v>
       </c>
@@ -2283,20 +2254,22 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="55" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:15">
       <c r="F55" t="s">
         <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H55" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I55" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J55" s="4">
+        <v>780</v>
+      </c>
       <c r="K55" t="s">
         <v>89</v>
       </c>
@@ -2314,20 +2287,22 @@
         <v>675</v>
       </c>
     </row>
-    <row r="56" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:15">
       <c r="F56" t="s">
         <v>48</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J56" s="4">
+        <v>500</v>
+      </c>
       <c r="K56" t="s">
         <v>89</v>
       </c>
@@ -2335,28 +2310,30 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:15">
       <c r="F57" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H57" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J57" s="4">
+        <v>65</v>
+      </c>
       <c r="K57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s">
         <v>51</v>
       </c>
       <c r="M57">
-        <f ca="1">SUMIF(G62:H324,$L$3,H62:H324)</f>
+        <f ca="1">SUMIF(G63:H327,$L$3,H63:H327)</f>
         <v>0</v>
       </c>
       <c r="N57">
@@ -2367,15 +2344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:15">
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H58" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
         <v>37</v>
@@ -2388,7 +2365,7 @@
         <v>53</v>
       </c>
       <c r="M58">
-        <f ca="1">SUMIF($G$2:$H$270,$L$4,$H$2:$H$270)</f>
+        <f ca="1">SUMIF($G$2:$H$273,$L$4,$H$2:$H$273)</f>
         <v>0</v>
       </c>
       <c r="N58">
@@ -2399,15 +2376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:15">
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I59" t="s">
         <v>37</v>
@@ -2417,12 +2394,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:15">
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H60" s="2">
         <v>10</v>
@@ -2435,15 +2412,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:15">
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H61" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
         <v>37</v>
@@ -2456,30 +2433,30 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:15">
       <c r="F62" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="6:15">
       <c r="F63" t="s">
         <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
@@ -2492,15 +2469,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:15">
       <c r="F64" t="s">
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H64" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
         <v>35</v>
@@ -2522,24 +2499,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:15">
       <c r="F65" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="4">
-        <v>65</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J65" s="4"/>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>53</v>
@@ -2555,9 +2530,9 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="66" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:15">
       <c r="F66" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
         <v>83</v>
@@ -2572,7 +2547,7 @@
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>52</v>
@@ -2588,12 +2563,12 @@
         <v>1187.5</v>
       </c>
     </row>
-    <row r="67" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:15">
       <c r="F67" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
@@ -2602,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="J67" s="4">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K67" t="s">
         <v>92</v>
@@ -2621,63 +2596,69 @@
         <v>593.75</v>
       </c>
     </row>
-    <row r="68" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:15">
       <c r="F68" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H68" s="2">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>37</v>
-      </c>
-      <c r="J68" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J68" s="4">
+        <v>100</v>
+      </c>
       <c r="K68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L68" t="s">
         <v>75</v>
       </c>
       <c r="M68">
-        <f>SUM(J61:J780)</f>
-        <v>811</v>
-      </c>
-    </row>
-    <row r="69" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+        <f>SUM(J62:J783)</f>
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="69" spans="6:15">
       <c r="F69" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H69" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
-      </c>
-      <c r="J69" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J69" s="4">
+        <v>65</v>
+      </c>
       <c r="K69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="6:15">
       <c r="F70" t="s">
         <v>57</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H70" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
-      </c>
-      <c r="J70" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J70" s="4">
+        <v>600</v>
+      </c>
       <c r="K70" t="s">
         <v>92</v>
       </c>
@@ -2686,20 +2667,22 @@
         <v>5106.25</v>
       </c>
     </row>
-    <row r="71" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:15">
       <c r="F71" t="s">
         <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
-      </c>
-      <c r="J71" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J71" s="4">
+        <v>108</v>
+      </c>
       <c r="K71" t="s">
         <v>92</v>
       </c>
@@ -2707,38 +2690,42 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:15">
       <c r="F72" t="s">
         <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
-      </c>
-      <c r="J72" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J72" s="4">
+        <v>27</v>
+      </c>
       <c r="K72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:15">
       <c r="F73" t="s">
         <v>57</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J73" s="4">
+        <v>54</v>
+      </c>
       <c r="K73" t="s">
         <v>92</v>
       </c>
@@ -2756,105 +2743,99 @@
         <v>4037.5</v>
       </c>
     </row>
-    <row r="74" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:15">
       <c r="F74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H74" s="2">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>37</v>
-      </c>
-      <c r="J74" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J74" s="4">
+        <v>65</v>
+      </c>
       <c r="K74" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>83</v>
       </c>
       <c r="M74">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N74">
         <v>55</v>
       </c>
       <c r="O74">
         <f>(M74*N74) -((M74*N74)*0.05)</f>
-        <v>1201.75</v>
-      </c>
-    </row>
-    <row r="75" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>1828.75</v>
+      </c>
+    </row>
+    <row r="75" spans="6:15">
       <c r="F75" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>37</v>
-      </c>
-      <c r="J75" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J75" s="4">
+        <v>100</v>
+      </c>
       <c r="K75" t="s">
         <v>89</v>
       </c>
       <c r="O75" s="1">
         <f>SUM(O70:O74)</f>
-        <v>10345.5</v>
-      </c>
-    </row>
-    <row r="76" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>10972.5</v>
+      </c>
+    </row>
+    <row r="76" spans="6:15">
       <c r="F76" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G76" t="s">
         <v>52</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
-      </c>
-      <c r="J76" s="4">
-        <v>27</v>
-      </c>
-      <c r="K76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="6:15">
       <c r="F77" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H77" s="2">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>36</v>
-      </c>
-      <c r="J77" s="4">
-        <v>27</v>
-      </c>
-      <c r="K77" t="s">
-        <v>89</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J77" s="4"/>
       <c r="L77" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:15">
       <c r="F78" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2863,19 +2844,21 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
-      </c>
-      <c r="J78" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J78" s="4">
+        <v>130</v>
+      </c>
       <c r="K78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="3" t="s">
-        <v>59</v>
+    <row r="79" spans="6:15">
+      <c r="F79" t="s">
+        <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H79" s="2">
         <v>1</v>
@@ -2884,58 +2867,56 @@
         <v>36</v>
       </c>
       <c r="J79" s="4">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="K79" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="6:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="3" t="s">
-        <v>59</v>
+    <row r="80" spans="6:15">
+      <c r="F80" t="s">
+        <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="s">
         <v>36</v>
       </c>
       <c r="J80" s="4">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="K80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F81" s="3" t="s">
-        <v>59</v>
+    <row r="81" spans="6:11">
+      <c r="F81" t="s">
+        <v>5</v>
       </c>
       <c r="G81" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H81" s="2">
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>36</v>
-      </c>
-      <c r="J81" s="4">
-        <v>54</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J81" s="4"/>
       <c r="K81" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:11">
       <c r="F82" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H82" s="2">
         <v>1</v>
@@ -2944,18 +2925,18 @@
         <v>36</v>
       </c>
       <c r="J82" s="4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K82" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:11">
       <c r="F83" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G83" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H83" s="2">
         <v>1</v>
@@ -2964,18 +2945,18 @@
         <v>36</v>
       </c>
       <c r="J83" s="4">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K83" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F84" t="s">
-        <v>79</v>
+    <row r="84" spans="6:11">
+      <c r="F84" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H84" s="2">
         <v>2</v>
@@ -2990,336 +2971,384 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="6:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
+    <row r="85" spans="6:11">
+      <c r="F85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85" s="4">
+        <v>27</v>
+      </c>
+      <c r="K85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="6:11">
+      <c r="F86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86" s="4">
+        <v>65</v>
+      </c>
+      <c r="K86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="6:11">
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s">
+        <v>53</v>
+      </c>
+      <c r="H87" s="2">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" s="4">
+        <v>54</v>
+      </c>
+      <c r="K87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11">
+      <c r="F88" t="s">
         <v>94</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G88" t="s">
         <v>51</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H88" s="2">
         <v>2</v>
       </c>
-      <c r="I85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J85" s="4">
+      <c r="I88" t="s">
+        <v>36</v>
+      </c>
+      <c r="J88" s="4">
         <v>200</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K88" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:11">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:11">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:11">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:11">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:11">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:11">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:11">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:11">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:10">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:10">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:10">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:10">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:10">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:10">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:10">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:10">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:10">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:10">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:10">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:10">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:10">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:10">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:10">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:10">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:10">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:10">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:10">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:10">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:10">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:10">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:10">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:10">
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:10">
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:10">
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:10">
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:10">
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:10">
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:10">
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:10">
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:10">
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:10">
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:10">
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:10">
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:10">
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:10">
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:10">
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:10">
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:10">
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:10">
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:10">
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:10">
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:10">
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:10">
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:10">
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:10">
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:10">
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:10">
       <c r="J176" s="4"/>
     </row>
+    <row r="177" spans="10:10">
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" s="4"/>
+    </row>
+    <row r="179" spans="10:10">
+      <c r="J179" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:O85" xr:uid="{172D33F2-C899-4989-B89D-0CB7CD102A22}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="KP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BUSINESS IS BUSINESS.xlsx
+++ b/BUSINESS IS BUSINESS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RR BAYOTBUANG\Business\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1036D4E-E839-4D6F-9CEB-CCAE61043980}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$O$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$K$95</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -195,18 +201,9 @@
     <t>Rocky</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Sir Gabs</t>
   </si>
   <si>
-    <t>REYNILAS</t>
-  </si>
-  <si>
-    <t>AINSPIRED</t>
-  </si>
-  <si>
     <t>F15</t>
   </si>
   <si>
@@ -309,18 +306,6 @@
     <t>Rowen</t>
   </si>
   <si>
-    <t>My Order</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>My Price</t>
-  </si>
-  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -330,20 +315,59 @@
     <t>Jhuvey</t>
   </si>
   <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Reynilas</t>
-  </si>
-  <si>
     <t>Padi</t>
+  </si>
+  <si>
+    <t>20pcs</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>RECEIVED</t>
+  </si>
+  <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>1ST ORDER</t>
+  </si>
+  <si>
+    <t>2ND ORDER</t>
+  </si>
+  <si>
+    <t>3RD ORDER</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Lola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,9 +519,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,6 +571,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -704,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -721,11 +781,11 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,14 +811,29 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -787,10 +862,29 @@
         <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2">
+        <f>SUMIF(G2:G246,M2,H2:H246)</f>
+        <v>67</v>
+      </c>
+      <c r="O2">
+        <f>SUMIFS(H2:H198,G2:G198,M2,I2:I198,O1)</f>
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <f>SUMIFS(H2:H198,G2:G198,M2,I2:I198,P1)</f>
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <f>SUMIFS(H2:H198,G2:G198,M2,I2:I198,Q1)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -819,10 +913,29 @@
         <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3">
+        <f>SUMIF(G2:G294,M3,H2:H294)</f>
+        <v>151</v>
+      </c>
+      <c r="O3">
+        <f>SUMIFS(H2:H198,G2:G198,M3,I2:I198,O1)</f>
+        <v>124</v>
+      </c>
+      <c r="P3">
+        <f>SUMIFS(H2:H198,G2:G198,M3,I2:I198,P1)</f>
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <f>SUMIFS(H2:H198,G2:G198,M3,I2:I198,Q1)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -851,10 +964,29 @@
         <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4">
+        <f>SUMIF(G2:G294,M4,H2:H294)</f>
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <f>SUMIFS(H2:H198,G2:G198,M4,I2:I198,O1)</f>
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <f>SUMIFS(H2:H198,G2:G198,M4,I2:I198,P1)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f>SUMIFS(H2:H198,G2:G198,M4,I2:I198,Q1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -868,7 +1000,7 @@
         <v>350</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>51</v>
@@ -881,10 +1013,29 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5">
+        <f>SUMIF(G2:G294,M5,H2:H294)</f>
+        <v>25</v>
+      </c>
+      <c r="O5">
+        <f>SUMIFS(H2:H198,G2:G198,M5,I2:I198,O1)</f>
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <f>SUMIFS(H2:H198,G2:G198,M5,I2:I198,P1)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIFS(H2:H198,G2:G198,M5,I2:I198,Q1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -898,7 +1049,7 @@
         <v>350</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -913,10 +1064,29 @@
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6">
+        <f>SUMIF(G2:G294,M6,H2:H294)</f>
+        <v>33</v>
+      </c>
+      <c r="O6">
+        <f>SUMIFS(H2:H198,G2:G198,M6,I2:I198,O1)</f>
+        <v>19</v>
+      </c>
+      <c r="P6">
+        <f>SUMIFS(H2:H198,G2:G198,M6,I2:I198,P1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>SUMIFS(H2:H198,G2:G198,M6,I2:I198,Q1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -930,10 +1100,10 @@
         <v>350</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -945,10 +1115,10 @@
         <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -959,23 +1129,25 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J8" s="4">
+        <v>324</v>
+      </c>
       <c r="K8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -989,23 +1161,28 @@
         <v>350</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="4">
         <v>54</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="4"/>
       <c r="K9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1019,23 +1196,40 @@
         <v>350</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J10" s="4">
+        <v>81</v>
+      </c>
       <c r="K10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1043,16 +1237,16 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <v>350</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1061,13 +1255,26 @@
         <v>36</v>
       </c>
       <c r="J11" s="4">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <f>SUM(N11:P11)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1081,25 +1288,41 @@
         <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="4">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>60</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(N12:P12)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1113,10 +1336,10 @@
         <v>350</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1125,13 +1348,26 @@
         <v>36</v>
       </c>
       <c r="J13" s="4">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <f>SUM(N13:P13)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1142,10 +1378,10 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1157,10 +1393,23 @@
         <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(N14:P14)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,25 +1420,38 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="4">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15">
+        <v>23</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(N15:P15)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1199,11 +1461,14 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -1212,13 +1477,22 @@
         <v>36</v>
       </c>
       <c r="J16" s="4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>90</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1228,26 +1502,29 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="4">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1257,8 +1534,11 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
@@ -1273,10 +1553,13 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>89</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1286,26 +1569,35 @@
       <c r="C19" t="s">
         <v>37</v>
       </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>36</v>
       </c>
       <c r="J19" s="4">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>89</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1313,28 +1605,38 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="4">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="4">
-        <v>100</v>
-      </c>
-      <c r="K20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20">
+        <f>N11-(O2+Q2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1344,26 +1646,36 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="4">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>89</v>
+      </c>
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21">
+        <f>Q12-(O3+Q3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1371,28 +1683,36 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="4">
-        <v>81</v>
-      </c>
+      <c r="J22" s="4"/>
       <c r="K22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22">
+        <f>Q13-(O4+Q4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1402,26 +1722,34 @@
       <c r="C23" t="s">
         <v>37</v>
       </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="4">
-        <v>65</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J23" s="4"/>
       <c r="K23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>89</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23">
+        <f>Q14-(O5+Q5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1431,14 +1759,17 @@
       <c r="C24" t="s">
         <v>37</v>
       </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
       <c r="F24" t="s">
         <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H24" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I24" t="s">
         <v>35</v>
@@ -1447,8 +1778,15 @@
       <c r="K24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24">
+        <f>Q15-(O6+Q6)-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1458,11 +1796,14 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2">
         <v>2</v>
@@ -1472,41 +1813,42 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="4">
-        <v>54</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J26" s="4"/>
       <c r="K26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -1518,27 +1860,25 @@
         <v>350</v>
       </c>
       <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>65</v>
-      </c>
-      <c r="G27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="4">
-        <v>65</v>
-      </c>
-      <c r="K27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1547,7 +1887,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -1562,12 +1902,12 @@
         <v>54</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1576,58 +1916,60 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
         <v>80</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="4">
+        <v>65</v>
+      </c>
+      <c r="K29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="2">
-        <v>8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="4">
-        <v>216</v>
-      </c>
-      <c r="K29" t="s">
-        <v>89</v>
-      </c>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" t="s">
-        <v>83</v>
-      </c>
       <c r="H30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
         <v>36</v>
       </c>
       <c r="J30" s="4">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L30" s="9"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -1639,70 +1981,74 @@
         <v>350</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I31" t="s">
         <v>36</v>
       </c>
       <c r="J31" s="4">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="K31" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>350</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
         <v>36</v>
       </c>
       <c r="J32" s="4">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="K32" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>350</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
@@ -1711,30 +2057,33 @@
         <v>36</v>
       </c>
       <c r="J33" s="4">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>350</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="4">
+        <v>52</v>
+      </c>
+      <c r="H34" s="2">
         <v>1</v>
       </c>
       <c r="I34" t="s">
@@ -1744,135 +2093,154 @@
         <v>27</v>
       </c>
       <c r="K34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>350</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="4">
+        <v>53</v>
+      </c>
+      <c r="H35" s="2">
         <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>36</v>
       </c>
       <c r="J35" s="4">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>350</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="2">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J36" s="4">
+        <v>27</v>
+      </c>
       <c r="K36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>350</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="2">
+        <v>80</v>
+      </c>
+      <c r="H37" s="4">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J37" s="4">
+        <v>65</v>
+      </c>
       <c r="K37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>350</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H38" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>350</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -1882,24 +2250,27 @@
       </c>
       <c r="J39" s="4"/>
       <c r="K39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D40">
+        <v>350</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -1909,143 +2280,183 @@
       </c>
       <c r="J40" s="4"/>
       <c r="K40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>350</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="4">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J41" s="4"/>
       <c r="K41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43">
+        <v>8750</v>
+      </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="4">
+        <v>65</v>
+      </c>
+      <c r="K43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="2">
         <v>2</v>
-      </c>
-      <c r="I43" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="2">
-        <v>6</v>
       </c>
       <c r="I44" t="s">
         <v>37</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>200</v>
+      </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
         <v>37</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>89</v>
+      </c>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H46" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I46" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -2055,700 +2466,523 @@
       </c>
       <c r="J47" s="4"/>
       <c r="K47" t="s">
-        <v>92</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="s">
         <v>37</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" t="s">
-        <v>104</v>
-      </c>
-      <c r="M48">
-        <f>SUM(J2:J243)</f>
-        <v>6878</v>
-      </c>
-      <c r="R48">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="49" spans="6:15">
+        <v>89</v>
+      </c>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" t="s">
+        <v>89</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="2">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="L49" t="s">
-        <v>61</v>
-      </c>
-      <c r="M49">
-        <f>SUM(D2:D118)</f>
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="50" spans="6:15">
-      <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s">
-        <v>53</v>
-      </c>
       <c r="H50" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="6:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>36</v>
-      </c>
-      <c r="J51" s="4">
-        <v>108</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J51" s="4"/>
       <c r="K51" t="s">
         <v>89</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="6:15">
+    </row>
+    <row r="52" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>36</v>
-      </c>
-      <c r="J52" s="4">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J52" s="4"/>
       <c r="K52" t="s">
         <v>89</v>
       </c>
-      <c r="L52" t="s">
-        <v>51</v>
-      </c>
-      <c r="M52">
-        <v>50</v>
-      </c>
-      <c r="N52">
-        <v>100</v>
-      </c>
-      <c r="O52">
-        <f>M52*N52</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="6:15">
+    </row>
+    <row r="53" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
         <v>53</v>
       </c>
       <c r="H53" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J53" s="4">
-        <v>54</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J53" s="4"/>
       <c r="K53" t="s">
         <v>89</v>
       </c>
-      <c r="L53" t="s">
-        <v>53</v>
-      </c>
-      <c r="M53">
-        <v>140</v>
-      </c>
-      <c r="N53">
-        <v>27</v>
-      </c>
-      <c r="O53">
-        <f>M53*N53</f>
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="54" spans="6:15">
+    </row>
+    <row r="54" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H54" s="2">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>36</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1378</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J54" s="4"/>
       <c r="K54" t="s">
         <v>89</v>
       </c>
-      <c r="L54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M54">
-        <v>50</v>
-      </c>
-      <c r="N54">
-        <v>27</v>
-      </c>
-      <c r="O54">
-        <f>M54*N54</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="55" spans="6:15">
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
         <v>53</v>
       </c>
       <c r="H55" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="4">
-        <v>780</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J55" s="4"/>
       <c r="K55" t="s">
         <v>89</v>
       </c>
-      <c r="L55" t="s">
+    </row>
+    <row r="56" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="2">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="4">
+        <v>108</v>
+      </c>
+      <c r="K56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
         <v>54</v>
       </c>
-      <c r="M55">
-        <v>25</v>
-      </c>
-      <c r="N55">
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" s="4">
         <v>27</v>
       </c>
-      <c r="O55">
-        <f>M55*N55</f>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="56" spans="6:15">
-      <c r="F56" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="2">
-        <v>5</v>
-      </c>
-      <c r="I56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="4">
-        <v>500</v>
-      </c>
-      <c r="K56" t="s">
-        <v>89</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="6:15">
-      <c r="F57" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s">
-        <v>83</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J57" s="4">
-        <v>65</v>
-      </c>
       <c r="K57" t="s">
-        <v>89</v>
-      </c>
-      <c r="L57" t="s">
-        <v>51</v>
-      </c>
-      <c r="M57">
-        <f ca="1">SUMIF(G63:H327,$L$3,H63:H327)</f>
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>100</v>
-      </c>
-      <c r="O57">
-        <f ca="1">M57*N57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="6:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
         <v>53</v>
       </c>
       <c r="H58" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J58" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J58" s="4">
+        <v>54</v>
+      </c>
       <c r="K58" t="s">
-        <v>92</v>
-      </c>
-      <c r="L58" t="s">
-        <v>53</v>
-      </c>
-      <c r="M58">
-        <f ca="1">SUMIF($G$2:$H$273,$L$4,$H$2:$H$273)</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>27</v>
-      </c>
-      <c r="O58">
-        <f ca="1">M58*N58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="6:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H59" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I59" t="s">
         <v>37</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="6:15">
+        <v>86</v>
+      </c>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H60" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I60" t="s">
         <v>37</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="6:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H61" s="2">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1378</v>
+      </c>
       <c r="K61" t="s">
-        <v>92</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="6:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H62" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J62" s="4">
+        <v>780</v>
+      </c>
       <c r="K62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="6:15">
+        <v>86</v>
+      </c>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s">
         <v>51</v>
       </c>
       <c r="H63" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J63" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J63" s="4">
+        <v>500</v>
+      </c>
       <c r="K63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="6:15">
+        <v>86</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="4">
+        <v>65</v>
+      </c>
+      <c r="K64" t="s">
+        <v>89</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
         <v>53</v>
       </c>
-      <c r="H64" s="2">
-        <v>2</v>
-      </c>
-      <c r="I64" t="s">
-        <v>35</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64" t="s">
-        <v>91</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="6:15">
-      <c r="F65" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" t="s">
-        <v>52</v>
-      </c>
       <c r="H65" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>35</v>
-      </c>
-      <c r="J65" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J65" s="4">
+        <v>290</v>
+      </c>
       <c r="K65" t="s">
-        <v>91</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M65">
-        <v>140</v>
-      </c>
-      <c r="N65">
-        <v>25</v>
-      </c>
-      <c r="O65">
-        <f>(M65*N65) -((M65*N65)*0.05)</f>
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="66" spans="6:15">
+        <v>89</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
-      </c>
-      <c r="J66" s="4">
-        <v>65</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J66" s="4"/>
       <c r="K66" t="s">
         <v>89</v>
       </c>
-      <c r="L66" s="3" t="s">
+    </row>
+    <row r="67" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
         <v>52</v>
       </c>
-      <c r="M66">
-        <v>50</v>
-      </c>
-      <c r="N66">
-        <v>25</v>
-      </c>
-      <c r="O66">
-        <f>(M66*N66) -((M66*N66)*0.05)</f>
-        <v>1187.5</v>
-      </c>
-    </row>
-    <row r="67" spans="6:15">
-      <c r="F67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
         <v>36</v>
       </c>
       <c r="J67" s="4">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="K67" t="s">
-        <v>92</v>
-      </c>
-      <c r="L67" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
         <v>54</v>
       </c>
-      <c r="M67">
-        <v>25</v>
-      </c>
-      <c r="N67">
-        <v>25</v>
-      </c>
-      <c r="O67">
-        <f>(M67*N67) -((M67*N67)*0.05)</f>
-        <v>593.75</v>
-      </c>
-    </row>
-    <row r="68" spans="6:15">
-      <c r="F68" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" t="s">
-        <v>51</v>
-      </c>
       <c r="H68" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
         <v>36</v>
       </c>
       <c r="J68" s="4">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="K68" t="s">
-        <v>92</v>
-      </c>
-      <c r="L68" t="s">
-        <v>75</v>
-      </c>
-      <c r="M68">
-        <f>SUM(J62:J783)</f>
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="69" spans="6:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" s="2">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" t="s">
         <v>88</v>
       </c>
-      <c r="G69" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69" s="2">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>36</v>
-      </c>
-      <c r="J69" s="4">
-        <v>65</v>
-      </c>
-      <c r="K69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="6:15">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
-      </c>
-      <c r="J70" s="4">
-        <v>600</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J70" s="4"/>
       <c r="K70" t="s">
-        <v>92</v>
-      </c>
-      <c r="O70" s="1">
-        <f>SUM(O65:O69)</f>
-        <v>5106.25</v>
-      </c>
-    </row>
-    <row r="71" spans="6:15">
+        <v>88</v>
+      </c>
+      <c r="L70">
+        <v>200</v>
+      </c>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>36</v>
-      </c>
-      <c r="J71" s="4">
-        <v>108</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J71" s="4"/>
       <c r="K71" t="s">
-        <v>92</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="6:15">
+        <v>88</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G72" t="s">
         <v>52</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
-      </c>
-      <c r="J72" s="4">
-        <v>27</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J72" s="4"/>
       <c r="K72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="6:15">
+        <v>86</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H73" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
         <v>36</v>
       </c>
       <c r="J73" s="4">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K73" t="s">
-        <v>92</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M73">
-        <v>50</v>
-      </c>
-      <c r="N73">
-        <v>85</v>
-      </c>
-      <c r="O73">
-        <f>(M73*N73) -((M73*N73)*0.05)</f>
-        <v>4037.5</v>
-      </c>
-    </row>
-    <row r="74" spans="6:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H74" s="2">
         <v>1</v>
@@ -2760,25 +2994,12 @@
         <v>65</v>
       </c>
       <c r="K74" t="s">
-        <v>92</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M74">
-        <v>35</v>
-      </c>
-      <c r="N74">
-        <v>55</v>
-      </c>
-      <c r="O74">
-        <f>(M74*N74) -((M74*N74)*0.05)</f>
-        <v>1828.75</v>
-      </c>
-    </row>
-    <row r="75" spans="6:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s">
         <v>51</v>
@@ -2793,69 +3014,74 @@
         <v>100</v>
       </c>
       <c r="K75" t="s">
+        <v>86</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" t="s">
+        <v>80</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>36</v>
+      </c>
+      <c r="J76" s="4">
+        <v>65</v>
+      </c>
+      <c r="K76" t="s">
         <v>89</v>
       </c>
-      <c r="O75" s="1">
-        <f>SUM(O70:O74)</f>
-        <v>10972.5</v>
-      </c>
-    </row>
-    <row r="76" spans="6:15">
-      <c r="F76" t="s">
-        <v>56</v>
-      </c>
-      <c r="G76" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" s="2">
-        <v>2</v>
-      </c>
-      <c r="I76" t="s">
-        <v>37</v>
-      </c>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="6:15">
+    </row>
+    <row r="77" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H77" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>37</v>
-      </c>
-      <c r="J77" s="4"/>
-      <c r="L77" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="6:15">
+        <v>36</v>
+      </c>
+      <c r="J77" s="4">
+        <v>600</v>
+      </c>
+      <c r="K77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G78" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H78" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I78" t="s">
         <v>36</v>
       </c>
       <c r="J78" s="4">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="K78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="6:15">
+    <row r="79" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G79" t="s">
         <v>52</v>
@@ -2873,12 +3099,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="6:15">
+    <row r="80" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H80" s="2">
         <v>2</v>
@@ -2893,27 +3119,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="6:11">
+    <row r="81" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H81" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
-      </c>
-      <c r="J81" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="J81" s="4">
+        <v>65</v>
+      </c>
       <c r="K81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="6:11">
-      <c r="F82" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>56</v>
       </c>
       <c r="G82" t="s">
         <v>51</v>
@@ -2927,96 +3155,86 @@
       <c r="J82" s="4">
         <v>100</v>
       </c>
-      <c r="K82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="6:11">
-      <c r="F83" s="3" t="s">
-        <v>59</v>
+    </row>
+    <row r="83" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>56</v>
       </c>
       <c r="G83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>36</v>
-      </c>
-      <c r="J83" s="4">
+        <v>37</v>
+      </c>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85" s="4">
+        <v>130</v>
+      </c>
+      <c r="K85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86" s="4">
         <v>27</v>
       </c>
-      <c r="K83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="6:11">
-      <c r="F84" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="K86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
         <v>52</v>
-      </c>
-      <c r="H84" s="2">
-        <v>2</v>
-      </c>
-      <c r="I84" t="s">
-        <v>36</v>
-      </c>
-      <c r="J84" s="4">
-        <v>54</v>
-      </c>
-      <c r="K84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="6:11">
-      <c r="F85" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G85" t="s">
-        <v>54</v>
-      </c>
-      <c r="H85" s="2">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J85" s="4">
-        <v>27</v>
-      </c>
-      <c r="K85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="6:11">
-      <c r="F86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G86" t="s">
-        <v>83</v>
-      </c>
-      <c r="H86" s="2">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
-        <v>36</v>
-      </c>
-      <c r="J86" s="4">
-        <v>65</v>
-      </c>
-      <c r="K86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="6:11">
-      <c r="F87" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s">
-        <v>53</v>
       </c>
       <c r="H87" s="2">
         <v>2</v>
@@ -3028,301 +3246,446 @@
         <v>54</v>
       </c>
       <c r="K87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="6:11">
+        <v>86</v>
+      </c>
+      <c r="P87">
+        <v>19350</v>
+      </c>
+    </row>
+    <row r="88" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H88" s="2">
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>36</v>
-      </c>
-      <c r="J88" s="4">
+        <v>37</v>
+      </c>
+      <c r="J88" s="4"/>
+      <c r="K88" t="s">
+        <v>86</v>
+      </c>
+      <c r="P88">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="89" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G89" t="s">
+        <v>51</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J89" s="4">
+        <v>100</v>
+      </c>
+      <c r="K89" t="s">
+        <v>86</v>
+      </c>
+      <c r="P89">
+        <f>SUM(P87:P88)</f>
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="90" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F90" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" t="s">
+        <v>53</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" s="4">
+        <v>27</v>
+      </c>
+      <c r="K90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G91" t="s">
+        <v>52</v>
+      </c>
+      <c r="H91" s="2">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>36</v>
+      </c>
+      <c r="J91" s="4">
+        <v>54</v>
+      </c>
+      <c r="K91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F92" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J92" s="4">
+        <v>27</v>
+      </c>
+      <c r="K92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F93" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G93" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>36</v>
+      </c>
+      <c r="J93" s="4">
+        <v>65</v>
+      </c>
+      <c r="K93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s">
+        <v>53</v>
+      </c>
+      <c r="H94" s="2">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>36</v>
+      </c>
+      <c r="J94" s="4">
+        <v>54</v>
+      </c>
+      <c r="K94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>91</v>
+      </c>
+      <c r="G95" t="s">
+        <v>51</v>
+      </c>
+      <c r="H95" s="2">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>36</v>
+      </c>
+      <c r="J95" s="4">
         <v>200</v>
       </c>
-      <c r="K88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="6:11">
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="6:11">
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="6:11">
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="6:11">
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="6:11">
-      <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="6:11">
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="6:11">
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="6:11">
+    </row>
+    <row r="96" spans="6:16" x14ac:dyDescent="0.25">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="4"/>
     </row>
-    <row r="105" spans="10:10">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="4"/>
     </row>
-    <row r="106" spans="10:10">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="4"/>
     </row>
-    <row r="107" spans="10:10">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="10:10">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="10:10">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="10:10">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="10:10">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="10:10">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="10:10">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="10:10">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="10:10">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="10:10">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="10:10">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="10:10">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="10:10">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="10:10">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="10:10">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="10:10">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="10:10">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="10:10">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="10:10">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="10:10">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="10:10">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="10:10">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="10:10">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="10:10">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="10:10">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="10:10">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="10:10">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="10:10">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="10:10">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="10:10">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="10:10">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="10:10">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="10:10">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="10:10">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="10:10">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="10:10">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="10:10">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="10:10">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="10:10">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="10:10">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="10:10">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="10:10">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="10:10">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="10:10">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="10:10">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="10:10">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="10:10">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="10:10">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="10:10">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="10:10">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="10:10">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="10:10">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="10:10">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="10:10">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="10:10">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="10:10">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="10:10">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="10:10">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="10:10">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="10:10">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="10:10">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="10:10">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="10:10">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="10:10">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="10:10">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="10:10">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="10:10">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="10:10">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="10:10">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="10:10">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="10:10">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="10:10">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="10:10">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J184" s="4"/>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J185" s="4"/>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J186" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3331,24 +3694,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
